--- a/策划文档/宠物技能.xlsx
+++ b/策划文档/宠物技能.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="100" windowWidth="24180" windowHeight="14980" tabRatio="845"/>
+    <workbookView xWindow="140" yWindow="100" windowWidth="24180" windowHeight="14980" tabRatio="845"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="456">
   <si>
     <t>金刚之躯</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1871,12 +1871,54 @@
     <t>提升最低生命值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>与自己同种的元素</t>
+  </si>
+  <si>
+    <t>生自己的元素：</t>
+  </si>
+  <si>
+    <t>自己克的元素：</t>
+  </si>
+  <si>
+    <t>克自己元素：</t>
+  </si>
+  <si>
+    <t>自己生的元素：</t>
+  </si>
+  <si>
+    <t>例：</t>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>土</t>
+  </si>
+  <si>
+    <t>木</t>
+  </si>
+  <si>
+    <t>金</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>消失</t>
+  </si>
+  <si>
+    <t>碰撞行为</t>
+  </si>
+  <si>
+    <t>弹开</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1937,6 +1979,35 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2014,15 +2085,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2058,15 +2141,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2185,9 +2259,31 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2201,6 +2297,52 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>635000</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>469900</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>101600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2487,88 +2629,162 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" style="53" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="53"/>
+    <col min="3" max="3" width="10.6640625" style="53" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" style="53" customWidth="1"/>
+    <col min="5" max="5" width="13" style="53" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="53"/>
+    <col min="7" max="7" width="12.1640625" style="53" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" style="53" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="53" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="53" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="53" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="53" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="6"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="53" t="s">
         <v>365</v>
       </c>
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="6" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="53" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="14" customFormat="1">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:3" s="55" customFormat="1">
+      <c r="A8" s="54" t="s">
         <v>415</v>
       </c>
-      <c r="B8" s="13"/>
-    </row>
-    <row r="9" spans="1:2" ht="56">
-      <c r="A9" s="4" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="90">
+      <c r="A9" s="56" t="s">
         <v>436</v>
       </c>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="6"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="52" t="s">
+        <v>447</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="51" t="s">
+        <v>442</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>448</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="52" t="s">
+        <v>446</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>449</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="52" t="s">
+        <v>444</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>451</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="52" t="s">
+        <v>443</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>450</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="52" t="s">
+        <v>445</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>452</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>455</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Word.Document.12" shapeId="1025" r:id="rId3">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>635000</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>469900</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>101600</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Word.Document.12" shapeId="1025" r:id="rId3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4016,22 +4232,22 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" s="10" customFormat="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="12" t="s">
         <v>401</v>
       </c>
       <c r="G2" s="11"/>
@@ -4041,22 +4257,22 @@
       <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" ht="70">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="14" t="s">
         <v>403</v>
       </c>
       <c r="G3" s="1"/>
@@ -4066,22 +4282,22 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="17" t="s">
         <v>404</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="14" t="s">
         <v>403</v>
       </c>
       <c r="G4" s="1"/>
@@ -4091,22 +4307,22 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" ht="28">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="16" t="s">
         <v>411</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="17" t="s">
         <v>404</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="16" t="s">
         <v>403</v>
       </c>
       <c r="G5" s="1"/>
@@ -4116,22 +4332,22 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="28">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="18" t="s">
         <v>332</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="18" t="s">
         <v>402</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="18" t="s">
         <v>405</v>
       </c>
       <c r="G6" s="1"/>
@@ -4141,22 +4357,22 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="42">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="18" t="s">
         <v>406</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="18" t="s">
         <v>407</v>
       </c>
       <c r="G7" s="1"/>
@@ -4166,22 +4382,22 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="28">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="19" t="s">
         <v>416</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="20" t="s">
         <v>404</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="18" t="s">
         <v>407</v>
       </c>
       <c r="G8" s="1"/>
@@ -4191,22 +4407,22 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="28">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="22" t="s">
         <v>373</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="23" t="s">
         <v>404</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="21" t="s">
         <v>408</v>
       </c>
       <c r="G9" s="1"/>
@@ -4216,22 +4432,22 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="154">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="22" t="s">
         <v>408</v>
       </c>
       <c r="G10" s="1"/>
@@ -4241,22 +4457,22 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="70">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="22" t="s">
         <v>408</v>
       </c>
       <c r="G11" s="1"/>
@@ -4266,22 +4482,22 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="28">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="23" t="s">
         <v>404</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="22" t="s">
         <v>408</v>
       </c>
       <c r="G12" s="1"/>
@@ -4346,222 +4562,222 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="24" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="42">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="14" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="17" t="s">
         <v>404</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="16" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="17" t="s">
         <v>404</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="16" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="42">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="18" t="s">
         <v>322</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="18" t="s">
         <v>402</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="19" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="70">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="18" t="s">
         <v>322</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="18" t="s">
         <v>402</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="19" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="18" t="s">
         <v>324</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="20" t="s">
         <v>404</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="19" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="168">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="21" t="s">
         <v>420</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="22" t="s">
         <v>325</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="21" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="56">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="21" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="22" t="s">
         <v>319</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="23" t="s">
         <v>404</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="21" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="28">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="23" t="s">
         <v>404</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="21" t="s">
         <v>409</v>
       </c>
     </row>
@@ -4622,264 +4838,264 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="29"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="A1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="27" t="s">
         <v>328</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="28" t="s">
         <v>400</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="27" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="29" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="31" t="s">
         <v>396</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="32" t="s">
         <v>404</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="31" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="42">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="31" t="s">
         <v>330</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="31" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="42">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="34" t="s">
         <v>402</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="35" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="33" t="s">
         <v>299</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="35" t="s">
         <v>421</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="36" t="s">
         <v>404</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="35" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="28">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="35" t="s">
         <v>422</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="36" t="s">
         <v>404</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="35" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="28">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="37" t="s">
         <v>336</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="38" t="s">
         <v>423</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="39" t="s">
         <v>402</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="38" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="98">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="37" t="s">
         <v>339</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="38" t="s">
         <v>424</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="39" t="s">
         <v>402</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="G10" s="38" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="28">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="37" t="s">
         <v>340</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="38" t="s">
         <v>425</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="40" t="s">
         <v>404</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="38" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="37" t="s">
         <v>338</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="38" t="s">
         <v>426</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="40" t="s">
         <v>404</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="38" t="s">
         <v>409</v>
       </c>
     </row>
@@ -4928,222 +5144,222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="41" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="42">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="43" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="42" t="s">
         <v>341</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="43" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="43" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="42">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="46" t="s">
         <v>343</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="46" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="45" t="s">
         <v>349</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="18" t="s">
         <v>351</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="46" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="18" t="s">
         <v>345</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="46" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="42">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="49" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="112">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="22" t="s">
         <v>346</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="49" t="s">
         <v>344</v>
       </c>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="49" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="49" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="21" t="s">
         <v>437</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="F11" s="51"/>
+      <c r="F11" s="48"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6"/>
@@ -5196,222 +5412,222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="41" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="43" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="43" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="16" t="s">
         <v>439</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="43" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="19" t="s">
         <v>399</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="46" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="56">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="18" t="s">
         <v>354</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="46" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="18" t="s">
         <v>355</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="46" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="42">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="49" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="42">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="22" t="s">
         <v>358</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="49" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="49" t="s">
         <v>211</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="49" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="F11" s="52" t="s">
+      <c r="F11" s="49" t="s">
         <v>441</v>
       </c>
     </row>

--- a/策划文档/宠物技能.xlsx
+++ b/策划文档/宠物技能.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24030"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="100" windowWidth="24180" windowHeight="14980" tabRatio="845"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="24180" windowHeight="13740" tabRatio="845" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="474">
   <si>
     <t>金刚之躯</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -569,10 +569,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>怪物模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>宠物背后出现口袋，口袋中放满金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -602,10 +598,6 @@
   </si>
   <si>
     <t>从属</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -731,18 +723,6 @@
   <si>
     <t>用电产生的磁力浮在空中，提高闪避</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物模型1（幼体）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物模型2（成长体）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物模型3（完全体）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>金系掌控</t>
@@ -816,8 +796,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -905,14 +885,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>被动技能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动技能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>魔法攻击有一定几率冻结对手</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -925,10 +897,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>被动技能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>头顶出现白色宝石</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1053,10 +1021,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>舍弃自身防御一回合，全部防御力转换为攻击值，同时己方可以在此回合行动两次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>背后出现钢制羽翼</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1145,14 +1109,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>一只幼小的火焰恶魔 没有脚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>炎魔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">灭绝烈炎  </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1223,13 +1179,6 @@
   <si>
     <t>双脚踏上火焰</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>己方行动路径上有几率出现火焰，敌方触碰将受到灼烧效果，相克元素遇到将消失</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成长中的恶魔 (体型简装，长有独角)</t>
   </si>
   <si>
     <t>等级加成</t>
@@ -1493,10 +1442,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提升宠物攻击力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>受到攻击时防御值有几率等于防御值与攻击值总和</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1505,31 +1450,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>战斗场景内的岩石将变成炸弹攻击对手。造成基础攻击力80%的基础伤害。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>对于游戏中元素变为陷阱设定解释。游戏中的元素转变为陷阱时，玩家弹球触碰己方陷阱同样会获得能力与战斗分数，敌方玩家触碰将受到相应限制。陷阱被己方触碰后将保留陷阱性质，但不保留获得战斗分数性质（岩系技能除外）。敌方触碰陷阱后陷阱将消失，系统会在战斗区域刷新出相应新的相应元素。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>使相生出的土系元素有几率变成岩石</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>攻击有一定几率破防</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>在战斗区域生成2-3个岩石，并有几率击晕对手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>游戏场景内的土元素化作岩石，敌方弹珠触碰岩石将减慢移动速度，岩石持续3回合。同时此陷阱被触发不会消失，同时玩家触碰岩石陷阱将搜集能量，且岩石被搜集战斗分数后不会移动也可以再次搜集战斗分数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏场景内的土元素化作岩石封住敌方弹珠四周。即当游戏场景内有两个土元素时，将封印敌方两个行动方向（上下左右），持续2回合。敌方玩家可以用弹珠最大速度突破岩石，但每突破每颗岩石速度减半</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1574,18 +1503,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>被攻击后有一定几率减少对方行动力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能释放后玩家2回合内不能行动以绝对零度的冰冷攻击对手，无视防御。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用钢铁的爪子切裂对手，一定几率提高自身攻击力。持续2回合。可叠加2次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>以自生重力优势冲击对手，有一定几率击晕对手。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1594,10 +1511,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 发射跟踪导弹锁定对手，使得接下来4回合内必中对手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>用毒针进行攻击，一定几率使对手陷入中毒状态减少敌方弹珠移动速度</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1626,20 +1539,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>用神秘的火焰烧毁对手，一定几率使对手陷入灼烧状态，并3回合内行动不再受摩擦力影响</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>用燃烧着火焰的拳头攻击对手，一定几率使对手陷入灼烧状态。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>提升自身防御，不在受到灼烧效果影响</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗区域所有相克元素转变为火元素。持续一回合</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>当血量10%以下时，有一定几率敌方攻击落空，并承受灼伤伤害</t>
@@ -1701,8 +1606,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>0</t>
@@ -1711,8 +1616,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>%额外金币</t>
@@ -1727,8 +1632,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>%的伤害，并加成爆炸区域（爆炸半径：75）内元素攻击分数（无论属性相克，均视为同种属性）。即先结算爆炸区域内元素分数*基础攻击力*技能加成（百分比）。炸弹持续回合</t>
@@ -1737,8 +1642,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>4</t>
@@ -1747,8 +1652,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>。敌方可视技能释放，但不可见战斗区域内炸弹位置</t>
@@ -1872,57 +1777,262 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>与自己同种的元素</t>
-  </si>
-  <si>
-    <t>生自己的元素：</t>
-  </si>
-  <si>
-    <t>自己克的元素：</t>
-  </si>
-  <si>
-    <t>克自己元素：</t>
-  </si>
-  <si>
-    <t>自己生的元素：</t>
-  </si>
-  <si>
-    <t>例：</t>
-  </si>
-  <si>
-    <t>火</t>
-  </si>
-  <si>
-    <t>土</t>
-  </si>
-  <si>
-    <t>木</t>
-  </si>
-  <si>
-    <t>金</t>
-  </si>
-  <si>
-    <t>水</t>
-  </si>
-  <si>
-    <t>消失</t>
-  </si>
-  <si>
-    <t>碰撞行为</t>
-  </si>
-  <si>
-    <t>弹开</t>
+    <t>伤害百分数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升防御力数值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩擦系数减少百分比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻结几率与耗魔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续回合与几率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少对方弹珠移动速度百分比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换冰元素数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>几率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔耗，封印承受最大伤害值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能释放后以绝对零度冰封住对手，敌方玩家需要在2回合内击碎封印（封印能承受最大伤害（）），此阶段我方攻击无效，如果敌方没有击碎封印，封印将以绝对零度的冰冷攻击对手（伤害等于封印能承受最大伤害值）并使敌方玩家失去行动能力一回合，无视防御。如果敌方击碎封印则不造成伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被攻击后有一定几率减少对方10%基础属性，同时免疫所有灼烧伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用神秘的火焰烧毁对手，一定几率使对手陷入灼烧状态，并己方3回合内行动不再受摩擦力影响</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能等级增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叠加上限，概率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>用钢铁的爪子切裂对手，造成1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20的基础伤害，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一定几率提高自身攻击力。持续2回合。可叠加2次</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能伤害百分比，击晕概率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升百分比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少耗魔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升防御值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升闪避值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耗魔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耗魔，双倍伤害概率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升概率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 发射跟踪导弹锁定对手，使得接下来3回合内必中对手，并有几率造成双倍伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>舍弃自身防御3回合，全部防御力转换为攻击值，同时己方可以在此回合行动两次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能等级提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升几率，与减少移动速度百分比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒素效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避提升百分数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能伤害百分数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加成百分数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升几率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低耗魔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升几率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灼烧伤害加成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被灼烧几率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能伤害百分比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加成数值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耗魔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方行动路径上有几率出现火焰，敌方触碰将受到灼烧效果，我方相克元素遇到将消失</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升血量百分数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现几率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少耗魔，转变元素数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗区域（）个相克元素转变为火元素。持续一回合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏场景内的土元素化作岩石封住敌方弹珠四周。（即当游戏场景内有两个土元素时以此类推）将封印敌方两个行动方向（上下左右），持续2回合。敌方玩家可以用弹珠最大速度突破岩石，但每突破每颗岩石速度减半</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升宠物闪避率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避率提升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少耗魔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外防御加成数值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗场景内的（）个岩石将变成炸弹攻击对手。触碰造成基础攻击力80%的基础伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换个数，技能伤害加成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>击晕概率，技能伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>破防几率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在战斗区域掉落2-3个岩石（可积累攻击分数），并有几率击晕对手，并造成一定伤害，岩石持续2回合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有几率使用技能不在耗魔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>几率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1933,14 +2043,14 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1948,14 +2058,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1963,7 +2073,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1977,38 +2087,16 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2085,27 +2173,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2121,27 +2197,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2259,32 +2335,109 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="差" xfId="1" builtinId="27"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2297,52 +2450,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>635000</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>469900</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>101600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2629,410 +2736,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" style="53" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="53"/>
-    <col min="3" max="3" width="10.6640625" style="53" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" style="53" customWidth="1"/>
-    <col min="5" max="5" width="13" style="53" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="53"/>
-    <col min="7" max="7" width="12.1640625" style="53" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" style="53" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="53"/>
+    <col min="1" max="1" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="7.875" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="53" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="53" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="53" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="53" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="53" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="53" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="55" customFormat="1">
-      <c r="A8" s="54" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="90">
-      <c r="A9" s="56" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" s="52" t="s">
-        <v>447</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="51" t="s">
-        <v>442</v>
-      </c>
-      <c r="B11" s="52" t="s">
-        <v>448</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="52" t="s">
-        <v>446</v>
-      </c>
-      <c r="B12" s="52" t="s">
-        <v>449</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="52" t="s">
-        <v>444</v>
-      </c>
-      <c r="B13" s="52" t="s">
-        <v>451</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="52" t="s">
-        <v>443</v>
-      </c>
-      <c r="B14" s="52" t="s">
-        <v>450</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="52" t="s">
-        <v>445</v>
-      </c>
-      <c r="B15" s="52" t="s">
-        <v>452</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>455</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" shapeId="1025" r:id="rId3">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>635000</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>469900</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>101600</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Word.Document.12" shapeId="1025" r:id="rId3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="28">
-      <c r="A2" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="42">
-      <c r="A3" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="28">
-      <c r="A4" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="28">
-      <c r="A5" s="4" t="s">
+    </row>
+    <row r="8" spans="1:2" s="11" customFormat="1">
+      <c r="A8" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="28">
-      <c r="A6" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="28">
-      <c r="A7" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:2" ht="54">
       <c r="A9" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="42">
-      <c r="A11" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" ht="28">
-      <c r="A16" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="42">
-      <c r="A17" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>276</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3045,229 +2826,531 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="A13:D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="29.625" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="27">
+      <c r="A1" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="27">
+      <c r="A2" s="56" t="s">
+        <v>369</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>370</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>270</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27">
+      <c r="A3" s="56" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>275</v>
+      </c>
+      <c r="D3" s="76" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>278</v>
+      </c>
+      <c r="D4" s="76" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="27">
+      <c r="A5" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>372</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>265</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="27">
+      <c r="A6" s="59" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>371</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>269</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="59" t="s">
+        <v>280</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>281</v>
+      </c>
+      <c r="D7" s="77" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="40.5">
+      <c r="A8" s="62" t="s">
+        <v>282</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>457</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>283</v>
+      </c>
+      <c r="D8" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="40.5">
+      <c r="A9" s="62" t="s">
+        <v>267</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>429</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="27">
+      <c r="A10" s="62" t="s">
+        <v>271</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>374</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="D10" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="F10" s="62" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="40.5">
+      <c r="A11" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>461</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>264</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="F11" s="62" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="83"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:E11">
+    <sortCondition ref="E2:E11"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="A1" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="E1" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="68" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="27">
+      <c r="A2" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27">
+      <c r="A3" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="79" t="s">
+        <v>463</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" s="76" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="81">
+      <c r="A4" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B4" s="56" t="s">
+        <v>352</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="81">
+      <c r="A5" s="71" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B5" s="59" t="s">
+        <v>462</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.5">
+      <c r="A6" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="73" t="s">
+        <v>348</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6" s="77" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="27">
+      <c r="A7" s="71" t="s">
+        <v>349</v>
+      </c>
+      <c r="B7" s="80" t="s">
+        <v>356</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="77" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="40.5">
+      <c r="A8" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>467</v>
+      </c>
+      <c r="C8" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D8" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F8" s="62" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="40.5">
+      <c r="A9" s="74" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>471</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.25">
+      <c r="A10" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>472</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="62" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.25">
+      <c r="A11" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>351</v>
+      </c>
+      <c r="C11" s="82" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15">
-      <c r="A3" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="84">
-      <c r="A4" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="D11" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="84">
-      <c r="A5" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15">
-      <c r="A7" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="28">
-      <c r="A8" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="28">
-      <c r="A9" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15">
-      <c r="A10" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15">
-      <c r="A11" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>200</v>
+      <c r="F11" s="62" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="6"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="4"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="15">
+    <row r="15" spans="1:6" ht="14.25">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
     </row>
@@ -3287,16 +3370,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="28">
+    <row r="1" spans="1:4" ht="27">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3313,7 +3396,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28">
+    <row r="4" spans="1:4" ht="27">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3330,7 +3413,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28">
+    <row r="7" spans="1:4" ht="27">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -3347,7 +3430,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28">
+    <row r="10" spans="1:4" ht="27">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -3364,7 +3447,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28">
+    <row r="13" spans="1:4" ht="27">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -3381,7 +3464,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="28">
+    <row r="16" spans="1:4" ht="27">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -3393,15 +3476,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="28">
+    <row r="17" spans="1:8" ht="27">
       <c r="A17" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="28">
+        <v>171</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="27">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -3418,7 +3501,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="28">
+    <row r="22" spans="1:8" ht="27">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -3435,7 +3518,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="28">
+    <row r="25" spans="1:8" ht="27">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -3456,7 +3539,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="28">
+    <row r="28" spans="1:8" ht="27">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -3490,16 +3573,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D46" sqref="A39:D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="28">
+    <row r="1" spans="1:4" ht="27">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3516,7 +3599,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28">
+    <row r="4" spans="1:4" ht="27">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3533,7 +3616,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28">
+    <row r="7" spans="1:4" ht="27">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -3550,7 +3633,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28">
+    <row r="10" spans="1:4" ht="27">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -3567,7 +3650,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28">
+    <row r="13" spans="1:4" ht="27">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -3584,7 +3667,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="28">
+    <row r="16" spans="1:4" ht="27">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -3596,12 +3679,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="56">
+    <row r="17" spans="1:4" ht="54">
       <c r="A17" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28">
+    <row r="19" spans="1:4" ht="27">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -3613,12 +3696,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="84">
+    <row r="20" spans="1:4" ht="81">
       <c r="A20" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="28">
+    <row r="21" spans="1:4" ht="27">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -3630,12 +3713,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="84">
+    <row r="22" spans="1:4" ht="94.5">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="28">
+    <row r="24" spans="1:4" ht="27">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -3647,12 +3730,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="84">
+    <row r="25" spans="1:4" ht="81">
       <c r="A25" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="28">
+    <row r="27" spans="1:4" ht="27">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -3669,7 +3752,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="28">
+    <row r="31" spans="1:4" ht="27">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -3703,16 +3786,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="28">
+    <row r="1" spans="1:4" ht="27">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3729,7 +3812,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28">
+    <row r="4" spans="1:4" ht="27">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3746,7 +3829,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28">
+    <row r="7" spans="1:4" ht="27">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -3763,7 +3846,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28">
+    <row r="10" spans="1:4" ht="27">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -3780,7 +3863,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28">
+    <row r="13" spans="1:4" ht="27">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -3797,7 +3880,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="28">
+    <row r="16" spans="1:4" ht="27">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -3814,7 +3897,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28">
+    <row r="19" spans="1:4" ht="27">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -3831,7 +3914,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="28">
+    <row r="22" spans="1:4" ht="27">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -3843,7 +3926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="28">
+    <row r="25" spans="1:4" ht="27">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -3855,7 +3938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="28">
+    <row r="28" spans="1:4" ht="27">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -3884,16 +3967,16 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="28">
+    <row r="1" spans="1:4" ht="27">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3910,7 +3993,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28">
+    <row r="4" spans="1:4" ht="27">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3927,7 +4010,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28">
+    <row r="7" spans="1:4" ht="27">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -3944,7 +4027,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28">
+    <row r="10" spans="1:4" ht="27">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -3956,7 +4039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28">
+    <row r="13" spans="1:4" ht="27">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -3968,7 +4051,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="28">
+    <row r="16" spans="1:4" ht="27">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -3980,7 +4063,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28">
+    <row r="19" spans="1:4" ht="27">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -3992,7 +4075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="28">
+    <row r="22" spans="1:4" ht="27">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -4021,16 +4104,16 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="28">
+    <row r="1" spans="1:4" ht="27">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -4047,7 +4130,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28">
+    <row r="4" spans="1:4" ht="27">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -4064,7 +4147,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28">
+    <row r="7" spans="1:4" ht="27">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -4081,7 +4164,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28">
+    <row r="10" spans="1:4" ht="27">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -4098,7 +4181,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28">
+    <row r="13" spans="1:4" ht="27">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -4127,14 +4210,14 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A9:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
@@ -4188,14 +4271,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4208,72 +4291,72 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A12" activeCellId="3" sqref="A9 A10 A11 A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.875" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="C1" s="6"/>
+      <c r="C1" s="5"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" s="10" customFormat="1">
+    <row r="2" spans="1:12" s="7" customFormat="1">
       <c r="A2" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>139</v>
-      </c>
       <c r="D2" s="13" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" spans="1:12" ht="70">
+        <v>377</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" ht="67.5">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -4286,19 +4369,19 @@
         <v>33</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -4306,24 +4389,24 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="28">
+    <row r="5" spans="1:12" ht="27">
       <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -4331,24 +4414,24 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="28">
+    <row r="6" spans="1:12" ht="27">
       <c r="A6" s="18" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -4356,24 +4439,24 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="42">
+    <row r="7" spans="1:12" ht="40.5">
       <c r="A7" s="18" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>75</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -4381,24 +4464,24 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="28">
+    <row r="8" spans="1:12" ht="27">
       <c r="A8" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -4406,24 +4489,24 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="28">
+    <row r="9" spans="1:12" ht="27">
       <c r="A9" s="21" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -4431,24 +4514,24 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="154">
+    <row r="10" spans="1:12" ht="148.5">
       <c r="A10" s="22" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -4456,24 +4539,24 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="70">
+    <row r="11" spans="1:12" ht="67.5">
       <c r="A11" s="22" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -4481,24 +4564,24 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="28">
+    <row r="12" spans="1:12" ht="27">
       <c r="A12" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -4507,20 +4590,20 @@
       <c r="L12" s="1"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="6"/>
+      <c r="A14" s="5"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="6"/>
+      <c r="A18" s="5"/>
     </row>
     <row r="27" spans="1:6">
       <c r="F27" s="1"/>
@@ -4544,61 +4627,61 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A12" activeCellId="3" sqref="A9 A10 A11 A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" customWidth="1"/>
-    <col min="3" max="3" width="32.83203125" customWidth="1"/>
+    <col min="2" max="2" width="27.125" customWidth="1"/>
+    <col min="3" max="3" width="32.875" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="C2" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>139</v>
-      </c>
       <c r="D2" s="25" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="42">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="40.5">
       <c r="A3" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4606,42 +4689,42 @@
         <v>40</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="14" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="42">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="40.5">
       <c r="A6" s="18" t="s">
         <v>21</v>
       </c>
@@ -4649,151 +4732,151 @@
         <v>36</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="70">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="67.5">
       <c r="A7" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="18" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="168">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="162">
       <c r="A9" s="22" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="56">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="54">
       <c r="A10" s="22" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="28">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="27">
       <c r="A11" s="22" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="28">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="27">
       <c r="A12" s="22" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="6"/>
+      <c r="A14" s="5"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="8"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="18" spans="5:5">
       <c r="E18" s="1"/>
@@ -4819,21 +4902,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="43.83203125" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="43.875" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
     <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4848,25 +4931,25 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="C2" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="D2" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>140</v>
-      </c>
       <c r="E2" s="27" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4880,85 +4963,85 @@
         <v>46</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="31" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="42">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="40.5">
       <c r="A5" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>73</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="42">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="40.5">
       <c r="A6" s="33" t="s">
         <v>78</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>77</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4966,53 +5049,53 @@
         <v>12</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="28">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="27">
       <c r="A8" s="33" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>76</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="28">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="27">
       <c r="A9" s="37" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="C9" s="37" t="s">
         <v>79</v>
@@ -5021,59 +5104,59 @@
         <v>133</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="98">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="94.5">
       <c r="A10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="C10" s="37" t="s">
         <v>69</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="28">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="27">
       <c r="A11" s="37" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5081,31 +5164,31 @@
         <v>49</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>51</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="6"/>
+      <c r="A14" s="5"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="4"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="4"/>
@@ -5127,45 +5210,45 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
     <col min="2" max="2" width="43.5" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="C1" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>140</v>
-      </c>
       <c r="E1" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="42">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="40.5">
       <c r="A2" s="42" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>52</v>
@@ -5174,13 +5257,13 @@
         <v>67</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F2" s="43" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5188,42 +5271,42 @@
         <v>55</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="C3" s="42" t="s">
         <v>56</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="28">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27">
       <c r="A4" s="42" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>53</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="42">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="40.5">
       <c r="A5" s="45" t="s">
         <v>8</v>
       </c>
@@ -5234,33 +5317,33 @@
         <v>72</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="45" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="C6" s="45" t="s">
         <v>71</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5268,59 +5351,59 @@
         <v>57</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="C7" s="45" t="s">
         <v>62</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="42">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="40.5">
       <c r="A8" s="48" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="C8" s="48" t="s">
         <v>70</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E8" s="49" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F8" s="49" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="112">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="121.5">
       <c r="A9" s="48" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>74</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E9" s="49" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5328,19 +5411,19 @@
         <v>59</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="C10" s="48" t="s">
         <v>58</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E10" s="49" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F10" s="49" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5348,37 +5431,37 @@
         <v>60</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="C11" s="48" t="s">
         <v>61</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E11" s="49" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F11" s="48"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="6"/>
+      <c r="A14" s="5"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="E15" s="6" t="s">
-        <v>194</v>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="E15" s="5" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="6"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="6"/>
+      <c r="C17" s="5"/>
     </row>
   </sheetData>
   <sortState ref="A2:F11">
@@ -5396,39 +5479,39 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="C1" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>140</v>
-      </c>
       <c r="E1" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5436,19 +5519,19 @@
         <v>14</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="C2" s="42" t="s">
         <v>63</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F2" s="43" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5456,19 +5539,19 @@
         <v>15</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="C3" s="42" t="s">
         <v>84</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5476,59 +5559,59 @@
         <v>18</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="C4" s="42" t="s">
         <v>83</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="28">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="27">
       <c r="A5" s="45" t="s">
         <v>68</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="C5" s="45" t="s">
         <v>81</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="56">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="54">
       <c r="A6" s="45" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="C6" s="46" t="s">
         <v>82</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5536,59 +5619,59 @@
         <v>64</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="42">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="40.5">
       <c r="A8" s="48" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="C8" s="49" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E8" s="49" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F8" s="49" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="42">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="40.5">
       <c r="A9" s="48" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="C9" s="49" t="s">
         <v>85</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E9" s="49" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5596,48 +5679,48 @@
         <v>65</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E10" s="49" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F10" s="49" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="28">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="27">
       <c r="A11" s="48" t="s">
         <v>66</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="C11" s="48" t="s">
         <v>80</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E11" s="49" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F11" s="49" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="4"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="6"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
@@ -5656,220 +5739,250 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="E1" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="68" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="54">
+      <c r="A2" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B2" s="56" t="s">
+        <v>432</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="40.5">
+      <c r="A3" s="70" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>363</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27">
+      <c r="A4" s="70" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>364</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="76" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.25">
+      <c r="A5" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="72" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" s="72" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.5">
+      <c r="A6" s="71" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" s="77" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="72" t="s">
+        <v>240</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="27">
+      <c r="A7" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>231</v>
+      </c>
+      <c r="D7" s="77" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="40.5">
+      <c r="A8" s="62" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="42">
-      <c r="A2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="28">
-      <c r="A3" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="28">
-      <c r="A4" s="3" t="s">
+      <c r="B8" s="62" t="s">
+        <v>441</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="42.75">
+      <c r="A9" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="27">
+      <c r="A10" s="74" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="F10" s="62" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="40.5">
+      <c r="A11" s="74" t="s">
+        <v>243</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" s="62" t="s">
         <v>244</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15">
-      <c r="A5" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="28">
-      <c r="A7" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="D11" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="28">
-      <c r="A8" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="45">
-      <c r="A9" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="28">
-      <c r="A10" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="42">
-      <c r="A11" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>247</v>
+      <c r="F11" s="62" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="6"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="4"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4"/>
@@ -5891,243 +6004,264 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:E16"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" customWidth="1"/>
+    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="22.875" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="27">
+      <c r="A1" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>143</v>
+      <c r="E1" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>443</v>
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="42">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:7" ht="54">
+      <c r="A2" s="79" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>365</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="69" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>444</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="28.5">
+      <c r="A3" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="B3" s="79" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="76" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>445</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="27">
+      <c r="A4" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>446</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="59" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" s="72" t="s">
+        <v>249</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>445</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="40.5">
+      <c r="A6" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>447</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="54">
+      <c r="A7" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>366</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="D7" s="77" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="F7" s="80" t="s">
+        <v>449</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="27">
+      <c r="A8" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>448</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="40.5">
+      <c r="A9" s="62" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" s="62" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="C9" s="62" t="s">
         <v>256</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" ht="28">
-      <c r="A4" s="4" t="s">
+      <c r="D9" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="F9" s="81" t="s">
+        <v>450</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="54">
+      <c r="A10" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="42">
-      <c r="A6" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="56">
-      <c r="A7" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B10" s="62" t="s">
+        <v>367</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>245</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="F10" s="81" t="s">
+        <v>450</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="27">
+      <c r="A11" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="42">
-      <c r="A9" s="4" t="s">
+      <c r="B11" s="62" t="s">
+        <v>368</v>
+      </c>
+      <c r="C11" s="62" t="s">
         <v>263</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="56">
-      <c r="A10" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="28">
-      <c r="A11" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="F11" s="1"/>
+      <c r="D11" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="F11" s="81" t="s">
+        <v>451</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="6"/>
-      <c r="B12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="4"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -6149,7 +6283,7 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6159,219 +6293,239 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
     <col min="3" max="3" width="28.5" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="56">
-      <c r="A2" s="7" t="s">
+      <c r="E1" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="54">
+      <c r="A2" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>353</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27">
+      <c r="A3" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27">
+      <c r="A4" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>357</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>221</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="121.5">
+      <c r="A5" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>358</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>193</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="40.5">
+      <c r="A6" s="58" t="s">
+        <v>359</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>360</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>193</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="27">
+      <c r="A7" s="58" t="s">
+        <v>211</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>361</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>193</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="81">
+      <c r="A8" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>362</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="63" t="s">
+        <v>212</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" s="63" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="27">
+      <c r="A9" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>210</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="63" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" s="63" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="202.5">
+      <c r="A10" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="B10" s="62" t="s">
+        <v>427</v>
+      </c>
+      <c r="C10" s="63" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="28">
-      <c r="A3" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="28">
-      <c r="A4" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="126">
-      <c r="A5" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="F10" s="63" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="54">
+      <c r="A11" s="63" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>428</v>
+      </c>
+      <c r="C11" s="64"/>
+      <c r="D11" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="42">
-      <c r="A6" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="28">
-      <c r="A7" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="84">
-      <c r="A8" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="28">
-      <c r="A9" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="56">
-      <c r="A10" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="28">
-      <c r="A11" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="63" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2"/>
@@ -6382,20 +6536,20 @@
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="15">
+    <row r="16" spans="1:6" ht="14.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
     </row>

--- a/策划文档/宠物技能.xlsx
+++ b/策划文档/宠物技能.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24030"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="24180" windowHeight="13740" tabRatio="845" activeTab="10"/>
+    <workbookView xWindow="120" yWindow="100" windowWidth="24620" windowHeight="15220" tabRatio="845" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="6" r:id="rId1"/>
@@ -796,8 +796,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -1606,8 +1606,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>0</t>
@@ -1616,8 +1616,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>%额外金币</t>
@@ -1632,8 +1632,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>%的伤害，并加成爆炸区域（爆炸半径：75）内元素攻击分数（无论属性相克，均视为同种属性）。即先结算爆炸区域内元素分数*基础攻击力*技能加成（百分比）。炸弹持续回合</t>
@@ -1642,8 +1642,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>4</t>
@@ -1652,8 +1652,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>。敌方可视技能释放，但不可见战斗区域内炸弹位置</t>
@@ -1840,8 +1840,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1851,7 +1850,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2027,12 +2026,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2043,14 +2042,14 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2058,14 +2057,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2073,7 +2072,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2087,16 +2086,9 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2181,7 +2173,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2260,9 +2252,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2335,109 +2324,70 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2736,21 +2686,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="7.875" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="7" max="7" width="12.125" customWidth="1"/>
-    <col min="8" max="8" width="17.875" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2793,7 +2743,7 @@
       </c>
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:2" ht="54">
+    <row r="9" spans="1:2" ht="56">
       <c r="A9" s="4" t="s">
         <v>412</v>
       </c>
@@ -2827,250 +2777,243 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="A13:D19"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="2" width="29.625" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="11.375" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:6" ht="28">
+      <c r="A1" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="51" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="27">
-      <c r="A2" s="56" t="s">
+    <row r="2" spans="1:6" ht="28">
+      <c r="A2" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="16" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27">
-      <c r="A3" s="56" t="s">
+    <row r="3" spans="1:6" ht="28">
+      <c r="A3" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="16" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="16" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="27">
-      <c r="A5" s="59" t="s">
+    <row r="5" spans="1:6" ht="28">
+      <c r="A5" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="19" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="27">
-      <c r="A6" s="59" t="s">
+    <row r="6" spans="1:6" ht="28">
+      <c r="A6" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="19" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="19" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="40.5">
-      <c r="A8" s="62" t="s">
+    <row r="8" spans="1:6" ht="42">
+      <c r="A8" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="F8" s="62" t="s">
+      <c r="F8" s="21" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="40.5">
-      <c r="A9" s="62" t="s">
+    <row r="9" spans="1:6" ht="42">
+      <c r="A9" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="21" t="s">
         <v>429</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="F9" s="62" t="s">
+      <c r="F9" s="21" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="27">
-      <c r="A10" s="62" t="s">
+    <row r="10" spans="1:6" ht="28">
+      <c r="A10" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="D10" s="78" t="s">
+      <c r="D10" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="E10" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="F10" s="62" t="s">
+      <c r="F10" s="21" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="40.5">
-      <c r="A11" s="62" t="s">
+    <row r="11" spans="1:6" ht="42">
+      <c r="A11" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="21" t="s">
         <v>461</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="F11" s="62" t="s">
+      <c r="F11" s="21" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="83"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-    </row>
+    <row r="12" spans="1:6" s="59" customFormat="1"/>
     <row r="15" spans="1:6">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
@@ -3100,239 +3043,240 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
-    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="40" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="27">
-      <c r="A2" s="56" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="16" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27">
-      <c r="A3" s="70" t="s">
+    <row r="3" spans="1:6" ht="15">
+      <c r="A3" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="60" t="s">
         <v>463</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="16" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="81">
-      <c r="A4" s="70" t="s">
+    <row r="4" spans="1:6" ht="84">
+      <c r="A4" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="16" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="81">
-      <c r="A5" s="71" t="s">
+    <row r="5" spans="1:6" ht="84">
+      <c r="A5" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="19" t="s">
         <v>462</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="19" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.5">
-      <c r="A6" s="71" t="s">
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="54" t="s">
         <v>348</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="19" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="27">
-      <c r="A7" s="71" t="s">
+    <row r="7" spans="1:6" ht="28">
+      <c r="A7" s="53" t="s">
         <v>349</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="18" t="s">
         <v>356</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="19" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="40.5">
-      <c r="A8" s="62" t="s">
+    <row r="8" spans="1:6" ht="42">
+      <c r="A8" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="21" t="s">
         <v>467</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="F8" s="62" t="s">
+      <c r="F8" s="21" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="40.5">
-      <c r="A9" s="74" t="s">
+    <row r="9" spans="1:6" ht="56">
+      <c r="A9" s="55" t="s">
         <v>194</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="F9" s="62" t="s">
+      <c r="F9" s="21" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.25">
-      <c r="A10" s="74" t="s">
+    <row r="10" spans="1:6" ht="15">
+      <c r="A10" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="21" t="s">
         <v>472</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="D10" s="78" t="s">
+      <c r="D10" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="E10" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="F10" s="62" t="s">
+      <c r="F10" s="21" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.25">
-      <c r="A11" s="74" t="s">
+    <row r="11" spans="1:6" ht="15">
+      <c r="A11" s="55" t="s">
         <v>170</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="C11" s="82" t="s">
+      <c r="C11" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="F11" s="62" t="s">
+      <c r="F11" s="21" t="s">
         <v>470</v>
       </c>
     </row>
@@ -3350,7 +3294,7 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="14.25">
+    <row r="15" spans="1:6" ht="15">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
     </row>
@@ -3370,16 +3314,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="27">
+    <row r="1" spans="1:4" ht="28">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3396,7 +3340,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="27">
+    <row r="4" spans="1:4" ht="28">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3413,7 +3357,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="27">
+    <row r="7" spans="1:4" ht="28">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -3430,7 +3374,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="27">
+    <row r="10" spans="1:4" ht="28">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -3447,7 +3391,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="27">
+    <row r="13" spans="1:4" ht="28">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -3464,7 +3408,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="27">
+    <row r="16" spans="1:4" ht="28">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -3476,7 +3420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="27">
+    <row r="17" spans="1:8" ht="28">
       <c r="A17" s="4" t="s">
         <v>171</v>
       </c>
@@ -3484,7 +3428,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="27">
+    <row r="19" spans="1:8" ht="28">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -3501,7 +3445,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="27">
+    <row r="22" spans="1:8" ht="28">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -3518,7 +3462,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="27">
+    <row r="25" spans="1:8" ht="28">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -3539,7 +3483,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="27">
+    <row r="28" spans="1:8" ht="28">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -3573,16 +3517,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D46" sqref="A39:D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="27">
+    <row r="1" spans="1:4" ht="28">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3599,7 +3543,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="27">
+    <row r="4" spans="1:4" ht="28">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3616,7 +3560,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="27">
+    <row r="7" spans="1:4" ht="28">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -3633,7 +3577,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="27">
+    <row r="10" spans="1:4" ht="28">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -3650,7 +3594,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="27">
+    <row r="13" spans="1:4" ht="28">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -3667,7 +3611,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="27">
+    <row r="16" spans="1:4" ht="28">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -3679,12 +3623,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="54">
+    <row r="17" spans="1:4" ht="56">
       <c r="A17" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="27">
+    <row r="19" spans="1:4" ht="28">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -3696,12 +3640,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="81">
+    <row r="20" spans="1:4" ht="84">
       <c r="A20" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="27">
+    <row r="21" spans="1:4" ht="28">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -3713,12 +3657,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="94.5">
+    <row r="22" spans="1:4" ht="84">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="27">
+    <row r="24" spans="1:4" ht="28">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -3730,12 +3674,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="81">
+    <row r="25" spans="1:4" ht="84">
       <c r="A25" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="27">
+    <row r="27" spans="1:4" ht="28">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -3752,7 +3696,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="27">
+    <row r="31" spans="1:4" ht="28">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -3786,16 +3730,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="27">
+    <row r="1" spans="1:4" ht="28">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3812,7 +3756,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="27">
+    <row r="4" spans="1:4" ht="28">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3829,7 +3773,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="27">
+    <row r="7" spans="1:4" ht="28">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -3846,7 +3790,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="27">
+    <row r="10" spans="1:4" ht="28">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -3863,7 +3807,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="27">
+    <row r="13" spans="1:4" ht="28">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -3880,7 +3824,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="27">
+    <row r="16" spans="1:4" ht="28">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -3897,7 +3841,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="27">
+    <row r="19" spans="1:4" ht="28">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -3914,7 +3858,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="27">
+    <row r="22" spans="1:4" ht="28">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -3926,7 +3870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="27">
+    <row r="25" spans="1:4" ht="28">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -3938,7 +3882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="27">
+    <row r="28" spans="1:4" ht="28">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -3967,16 +3911,16 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="27">
+    <row r="1" spans="1:4" ht="28">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3993,7 +3937,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="27">
+    <row r="4" spans="1:4" ht="28">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -4010,7 +3954,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="27">
+    <row r="7" spans="1:4" ht="28">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -4027,7 +3971,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="27">
+    <row r="10" spans="1:4" ht="28">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -4039,7 +3983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="27">
+    <row r="13" spans="1:4" ht="28">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -4051,7 +3995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="27">
+    <row r="16" spans="1:4" ht="28">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -4063,7 +4007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="27">
+    <row r="19" spans="1:4" ht="28">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -4075,7 +4019,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="27">
+    <row r="22" spans="1:4" ht="28">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -4104,16 +4048,16 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="27">
+    <row r="1" spans="1:4" ht="28">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -4130,7 +4074,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="27">
+    <row r="4" spans="1:4" ht="28">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -4147,7 +4091,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="27">
+    <row r="7" spans="1:4" ht="28">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -4164,7 +4108,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="27">
+    <row r="10" spans="1:4" ht="28">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -4181,7 +4125,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="27">
+    <row r="13" spans="1:4" ht="28">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -4210,14 +4154,14 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A9:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
@@ -4271,14 +4215,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4291,69 +4235,89 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A12" activeCellId="3" sqref="A9 A10 A11 A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.875" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="C1" s="5"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" s="7" customFormat="1">
-      <c r="A2" s="12" t="s">
+    <row r="1" spans="1:12" s="7" customFormat="1">
+      <c r="A1" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B1" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-    </row>
-    <row r="3" spans="1:12" ht="67.5">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" ht="70">
+      <c r="A2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>285</v>
+        <v>33</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>386</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>378</v>
+        <v>289</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>380</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>379</v>
@@ -4364,23 +4328,23 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" ht="28">
       <c r="A4" s="14" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="16" t="s">
         <v>379</v>
       </c>
       <c r="G4" s="1"/>
@@ -4389,24 +4353,24 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="27">
-      <c r="A5" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>380</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>379</v>
+    <row r="5" spans="1:12" ht="28">
+      <c r="A5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>381</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -4414,24 +4378,24 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="27">
+    <row r="6" spans="1:12" ht="42">
       <c r="A6" s="18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -4439,21 +4403,21 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="40.5">
+    <row r="7" spans="1:12" ht="28">
       <c r="A7" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>296</v>
+        <v>0</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>392</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>382</v>
+        <v>293</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>380</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>383</v>
@@ -4464,24 +4428,24 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="27">
-      <c r="A8" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>392</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E8" s="20" t="s">
+    <row r="8" spans="1:12" ht="28">
+      <c r="A8" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>380</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>383</v>
+      <c r="F8" s="21" t="s">
+        <v>384</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -4489,23 +4453,23 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="27">
-      <c r="A9" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>355</v>
+    <row r="9" spans="1:12" ht="154">
+      <c r="A9" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>388</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="F9" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>384</v>
       </c>
       <c r="G9" s="1"/>
@@ -4514,21 +4478,21 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="148.5">
+    <row r="10" spans="1:12" ht="70">
       <c r="A10" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>388</v>
+        <v>32</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>344</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>389</v>
+        <v>295</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>382</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>384</v>
@@ -4539,21 +4503,21 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="67.5">
+    <row r="11" spans="1:12" ht="28">
       <c r="A11" s="22" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>382</v>
+        <v>297</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>380</v>
       </c>
       <c r="F11" s="22" t="s">
         <v>384</v>
@@ -4564,52 +4528,27 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="27">
-      <c r="A12" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+    <row r="13" spans="1:12">
+      <c r="A13" s="5"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="5"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="4"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="5"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="F27" s="1"/>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="1"/>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="F26" s="1"/>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A3:E13">
@@ -4627,75 +4566,95 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A12" activeCellId="3" sqref="A9 A10 A11 A12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="27.125" customWidth="1"/>
-    <col min="3" max="3" width="32.875" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" s="24" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B1" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C1" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D1" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E1" s="25" t="s">
         <v>376</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F1" s="24" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="40.5">
+    <row r="2" spans="1:6" ht="42">
+      <c r="A2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="14" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>35</v>
+        <v>299</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="F3" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="14" t="s">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>41</v>
+        <v>301</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>380</v>
@@ -4704,35 +4663,35 @@
         <v>379</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>380</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="40.5">
+    <row r="5" spans="1:6" ht="42">
+      <c r="A5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="70">
       <c r="A6" s="18" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>182</v>
+        <v>310</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>309</v>
@@ -4744,58 +4703,58 @@
         <v>381</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="67.5">
+    <row r="7" spans="1:6">
       <c r="A7" s="18" t="s">
-        <v>25</v>
+        <v>302</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>310</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>39</v>
+        <v>303</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>181</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>378</v>
+        <v>311</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>380</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="18" t="s">
-        <v>302</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="162">
+    <row r="8" spans="1:6" ht="168">
+      <c r="A8" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="56">
       <c r="A9" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>396</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>183</v>
+        <v>22</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>37</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E9" s="22" t="s">
         <v>378</v>
@@ -4804,38 +4763,38 @@
         <v>385</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="54">
+    <row r="10" spans="1:6" ht="28">
       <c r="A10" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>37</v>
+        <v>24</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>314</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>378</v>
+        <v>306</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>380</v>
       </c>
       <c r="F10" s="21" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="27">
+    <row r="11" spans="1:6" ht="28">
       <c r="A11" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>44</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>380</v>
@@ -4844,45 +4803,25 @@
         <v>385</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="27">
-      <c r="A12" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>309</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>385</v>
-      </c>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5"/>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="5"/>
-      <c r="E14" s="1"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4"/>
-      <c r="B15" s="6"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="18" spans="5:5">
-      <c r="E18" s="1"/>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
+    <row r="17" spans="5:5">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4902,298 +4841,289 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="2" max="2" width="43.875" customWidth="1"/>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="43.83203125" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
     <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="26"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="A1" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>315</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>376</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>377</v>
+      <c r="A2" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="30" t="s">
+      <c r="A3" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="42">
+      <c r="A4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="E3" s="29" t="s">
-        <v>309</v>
-      </c>
-      <c r="F3" s="30" t="s">
+      <c r="E4" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="F4" s="29" t="s">
         <v>378</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G4" s="30" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>373</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="D4" s="30" t="s">
+    <row r="5" spans="1:7" ht="42">
+      <c r="A5" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="E4" s="31" t="s">
-        <v>316</v>
-      </c>
-      <c r="F4" s="32" t="s">
+      <c r="E6" s="34" t="s">
+        <v>397</v>
+      </c>
+      <c r="F6" s="35" t="s">
         <v>380</v>
       </c>
-      <c r="G4" s="31" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="40.5">
-      <c r="A5" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>318</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="30" t="s">
+      <c r="G6" s="34" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28">
+      <c r="A7" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>398</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28">
+      <c r="A8" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>323</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>399</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="98">
+      <c r="A9" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>317</v>
-      </c>
-      <c r="F5" s="30" t="s">
+      <c r="E9" s="37" t="s">
+        <v>400</v>
+      </c>
+      <c r="F9" s="38" t="s">
         <v>378</v>
       </c>
-      <c r="G5" s="31" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="40.5">
-      <c r="A6" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>321</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>320</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>378</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="D7" s="34" t="s">
+      <c r="G9" s="37" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28">
+      <c r="A10" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>327</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="E7" s="35" t="s">
-        <v>397</v>
-      </c>
-      <c r="F7" s="36" t="s">
+      <c r="E10" s="37" t="s">
+        <v>401</v>
+      </c>
+      <c r="F10" s="39" t="s">
         <v>380</v>
       </c>
-      <c r="G7" s="35" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="27">
-      <c r="A8" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="34" t="s">
+      <c r="G10" s="37" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="E8" s="35" t="s">
-        <v>398</v>
-      </c>
-      <c r="F8" s="36" t="s">
+      <c r="E11" s="37" t="s">
+        <v>402</v>
+      </c>
+      <c r="F11" s="39" t="s">
         <v>380</v>
       </c>
-      <c r="G8" s="35" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="27">
-      <c r="A9" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>323</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>399</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>378</v>
-      </c>
-      <c r="G9" s="38" t="s">
+      <c r="G11" s="37" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="94.5">
-      <c r="A10" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>326</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>400</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>378</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="27">
-      <c r="A11" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>327</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>401</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>380</v>
-      </c>
-      <c r="G11" s="38" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>325</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>402</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>380</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>385</v>
-      </c>
+    <row r="13" spans="1:7">
+      <c r="A13" s="5"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="5"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="4"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
     </row>
   </sheetData>
   <sortState ref="A3:E12">
@@ -5210,24 +5140,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
     <col min="2" max="2" width="43.5" customWidth="1"/>
-    <col min="3" max="3" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>136</v>
       </c>
       <c r="B1" s="24" t="s">
@@ -5242,52 +5172,52 @@
       <c r="E1" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="40" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="40.5">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:6" ht="42">
+      <c r="A2" s="41" t="s">
         <v>334</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="42" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="41" t="s">
         <v>328</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="42" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27">
-      <c r="A4" s="42" t="s">
+    <row r="4" spans="1:6" ht="28">
+      <c r="A4" s="41" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="14" t="s">
@@ -5296,98 +5226,98 @@
       <c r="C4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="42" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="40.5">
-      <c r="A5" s="45" t="s">
+    <row r="5" spans="1:6" ht="42">
+      <c r="A5" s="44" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="45" t="s">
         <v>330</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="45" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="44" t="s">
         <v>336</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="45" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="44" t="s">
         <v>57</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>332</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="45" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="40.5">
-      <c r="A8" s="48" t="s">
+    <row r="8" spans="1:6" ht="42">
+      <c r="A8" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="48" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="121.5">
-      <c r="A9" s="48" t="s">
+    <row r="9" spans="1:6" ht="112">
+      <c r="A9" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="22" t="s">
@@ -5396,53 +5326,53 @@
       <c r="C9" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="48" t="s">
         <v>331</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="48" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="47" t="s">
         <v>59</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="F10" s="48" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="47" t="s">
         <v>60</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="F11" s="48"/>
+      <c r="F11" s="47"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5"/>
@@ -5479,19 +5409,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5510,207 +5442,207 @@
       <c r="E1" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="40" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="41" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="42" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="41" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="42" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="41" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="42" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="27">
-      <c r="A5" s="45" t="s">
+    <row r="5" spans="1:6" ht="28">
+      <c r="A5" s="44" t="s">
         <v>68</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="45" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="54">
-      <c r="A6" s="45" t="s">
+    <row r="6" spans="1:6" ht="56">
+      <c r="A6" s="44" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="45" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="44" t="s">
         <v>64</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>342</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="45" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="40.5">
-      <c r="A8" s="48" t="s">
+    <row r="8" spans="1:6" ht="42">
+      <c r="A8" s="47" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="48" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="40.5">
-      <c r="A9" s="48" t="s">
+    <row r="9" spans="1:6" ht="42">
+      <c r="A9" s="47" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="48" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="47" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>346</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="F10" s="48" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="27">
-      <c r="A11" s="48" t="s">
+    <row r="11" spans="1:6" ht="28">
+      <c r="A11" s="47" t="s">
         <v>66</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="F11" s="49" t="s">
+      <c r="F11" s="48" t="s">
         <v>417</v>
       </c>
     </row>
@@ -5739,239 +5671,239 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="40" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="54">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:6" ht="56">
+      <c r="A2" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="16" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="40.5">
-      <c r="A3" s="70" t="s">
+    <row r="3" spans="1:6" ht="42">
+      <c r="A3" s="52" t="s">
         <v>233</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="16" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27">
-      <c r="A4" s="70" t="s">
+    <row r="4" spans="1:6" ht="28">
+      <c r="A4" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="16" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25">
-      <c r="A5" s="71" t="s">
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="45" t="s">
         <v>237</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="19" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.5">
-      <c r="A6" s="71" t="s">
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="53" t="s">
         <v>225</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="E6" s="72" t="s">
+      <c r="E6" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="19" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="27">
-      <c r="A7" s="71" t="s">
+    <row r="7" spans="1:6" ht="28">
+      <c r="A7" s="53" t="s">
         <v>242</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="19" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="40.5">
-      <c r="A8" s="62" t="s">
+    <row r="8" spans="1:6" ht="42">
+      <c r="A8" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="21" t="s">
         <v>441</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="F8" s="62" t="s">
+      <c r="F8" s="21" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="42.75">
-      <c r="A9" s="74" t="s">
+    <row r="9" spans="1:6" ht="45">
+      <c r="A9" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="F9" s="62" t="s">
+      <c r="F9" s="21" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="27">
-      <c r="A10" s="74" t="s">
+    <row r="10" spans="1:6" ht="28">
+      <c r="A10" s="55" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="D10" s="78" t="s">
+      <c r="D10" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="E10" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="F10" s="62" t="s">
+      <c r="F10" s="21" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="40.5">
-      <c r="A11" s="74" t="s">
+    <row r="11" spans="1:6" ht="42">
+      <c r="A11" s="55" t="s">
         <v>243</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="21" t="s">
         <v>442</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="F11" s="62" t="s">
+      <c r="F11" s="21" t="s">
         <v>435</v>
       </c>
     </row>
@@ -6004,259 +5936,258 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.625" customWidth="1"/>
-    <col min="3" max="3" width="22.875" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:7" ht="28">
+      <c r="A1" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="51" t="s">
         <v>443</v>
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="54">
-      <c r="A2" s="79" t="s">
+    <row r="2" spans="1:7" ht="56">
+      <c r="A2" s="60" t="s">
         <v>246</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="42" t="s">
         <v>247</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="16" t="s">
         <v>444</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="28.5">
-      <c r="A3" s="56" t="s">
+    <row r="3" spans="1:7" ht="30">
+      <c r="A3" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="60" t="s">
         <v>257</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="76" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="16" t="s">
         <v>445</v>
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="27">
-      <c r="A4" s="56" t="s">
+    <row r="4" spans="1:7" ht="28">
+      <c r="A4" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="16" t="s">
         <v>446</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="19" t="s">
         <v>445</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="40.5">
-      <c r="A6" s="59" t="s">
+    <row r="6" spans="1:7" ht="42">
+      <c r="A6" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="19" t="s">
         <v>447</v>
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="54">
-      <c r="A7" s="59" t="s">
+    <row r="7" spans="1:7" ht="56">
+      <c r="A7" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="F7" s="80" t="s">
+      <c r="F7" s="18" t="s">
         <v>449</v>
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="27">
-      <c r="A8" s="62" t="s">
+    <row r="8" spans="1:7" ht="28">
+      <c r="A8" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="F8" s="62" t="s">
+      <c r="F8" s="21" t="s">
         <v>448</v>
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="40.5">
-      <c r="A9" s="62" t="s">
+    <row r="9" spans="1:7" ht="42">
+      <c r="A9" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="F9" s="81" t="s">
+      <c r="F9" s="22" t="s">
         <v>450</v>
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="54">
-      <c r="A10" s="62" t="s">
+    <row r="10" spans="1:7" ht="56">
+      <c r="A10" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="E10" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="F10" s="81" t="s">
+      <c r="F10" s="22" t="s">
         <v>450</v>
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="27">
-      <c r="A11" s="62" t="s">
+    <row r="11" spans="1:7" ht="28">
+      <c r="A11" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="21" t="s">
         <v>368</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="F11" s="81" t="s">
+      <c r="F11" s="22" t="s">
         <v>451</v>
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="82"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="1"/>
+    <row r="12" spans="1:7" s="59" customFormat="1">
+      <c r="A12" s="57"/>
+      <c r="B12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="4"/>
@@ -6283,7 +6214,7 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6293,237 +6224,238 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A11"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.375" customWidth="1"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
     <col min="3" max="3" width="28.5" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
-    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="67" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="54">
-      <c r="A2" s="55" t="s">
+    <row r="2" spans="1:6" ht="56">
+      <c r="A2" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="68" t="s">
         <v>213</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="68" t="s">
         <v>190</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="68" t="s">
         <v>191</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="68" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27">
-      <c r="A3" s="55" t="s">
+    <row r="3" spans="1:6" ht="28">
+      <c r="A3" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="68" t="s">
         <v>214</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="69" t="s">
         <v>192</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="68" t="s">
         <v>191</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="68" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27">
-      <c r="A4" s="55" t="s">
+    <row r="4" spans="1:6" ht="28">
+      <c r="A4" s="68" t="s">
         <v>158</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="16" t="s">
         <v>357</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="68" t="s">
         <v>221</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="69" t="s">
         <v>192</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="68" t="s">
         <v>191</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="68" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="121.5">
-      <c r="A5" s="58" t="s">
+    <row r="5" spans="1:6" ht="126">
+      <c r="A5" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="61" t="s">
         <v>190</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="61" t="s">
         <v>193</v>
       </c>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="61" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="40.5">
-      <c r="A6" s="58" t="s">
+    <row r="6" spans="1:6" ht="42">
+      <c r="A6" s="61" t="s">
         <v>359</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="61" t="s">
         <v>219</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="61" t="s">
         <v>190</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="61" t="s">
         <v>193</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="F6" s="61" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="27">
-      <c r="A7" s="58" t="s">
+    <row r="7" spans="1:6" ht="28">
+      <c r="A7" s="61" t="s">
         <v>211</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="19" t="s">
         <v>361</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="61" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="61" t="s">
         <v>193</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="61" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="81">
-      <c r="A8" s="61" t="s">
+    <row r="8" spans="1:6" ht="84">
+      <c r="A8" s="63" t="s">
         <v>159</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="64" t="s">
         <v>217</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="64" t="s">
         <v>212</v>
       </c>
-      <c r="E8" s="63" t="s">
+      <c r="E8" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="F8" s="63" t="s">
+      <c r="F8" s="64" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="27">
-      <c r="A9" s="63" t="s">
+    <row r="9" spans="1:6" ht="28">
+      <c r="A9" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="64" t="s">
         <v>216</v>
       </c>
       <c r="D9" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="E9" s="63" t="s">
+      <c r="E9" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="F9" s="63" t="s">
+      <c r="F9" s="64" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="202.5">
-      <c r="A10" s="63" t="s">
+    <row r="10" spans="1:6" ht="210">
+      <c r="A10" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="64" t="s">
         <v>190</v>
       </c>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="F10" s="63" t="s">
+      <c r="F10" s="64" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="54">
-      <c r="A11" s="63" t="s">
+    <row r="11" spans="1:6" ht="56">
+      <c r="A11" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="21" t="s">
         <v>428</v>
       </c>
-      <c r="C11" s="64"/>
+      <c r="C11" s="66"/>
       <c r="D11" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="F11" s="63" t="s">
+      <c r="F11" s="64" t="s">
         <v>425</v>
       </c>
     </row>
@@ -6549,7 +6481,7 @@
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="14.25">
+    <row r="16" spans="1:6" ht="15">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
     </row>

--- a/策划文档/宠物技能.xlsx
+++ b/策划文档/宠物技能.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BLACSTAR\Documents\GitHub\PixelPixie\策划文档\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="100" windowWidth="24620" windowHeight="15220" tabRatio="845" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="24615" windowHeight="15225" tabRatio="845"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="6" r:id="rId1"/>
@@ -26,7 +31,7 @@
     <sheet name="Sheet5" sheetId="17" r:id="rId17"/>
     <sheet name="Sheet6" sheetId="18" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="482">
   <si>
     <t>金刚之躯</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -796,7 +801,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1189,10 +1194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每回合有几率进化异常负面状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当敌方造成伤害时给予反击。反击伤害=敌方造成伤害*反击系数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1330,10 +1331,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>游戏场景内的水元素将化作水花拍击对手，每个元素有几率造成晕眩使敌方丧失行动能力一回合。并每个水元素造成基础攻击力*（）%的伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能释放需在玩家拖动释放弹球之前</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1411,17 +1408,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">场景内所有土元素转变为沙尘陷阱，持续3回合，敌方玩家进入其周围50内将被吸入（即速度为0回合结束）
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>宠物的攻击有一定几率获得2倍伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">在对手脚下释放大地的力量，使敌方弹珠移动速度减半。持续4回合。
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1470,10 +1457,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>每回合拉近战斗区域的金系元素与玩家弹珠的距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>受到攻击有几率获得额外防御加成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1500,10 +1483,6 @@
   </si>
   <si>
     <t>转化场景内1个元素变为冰系（除水系元素和相生元素）敌方击中将有一点几率被冻结（失去行动1回合） 效果持续5回合</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>以自生重力优势冲击对手，有一定几率击晕对手。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1606,7 +1585,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1616,7 +1595,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1632,7 +1611,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1642,7 +1621,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1652,7 +1631,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1669,10 +1648,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>宠物的被动技能没有动作，主动技能均包含动作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>让皮肤变得和金子一样坚硬，大幅提高自身基础防御</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1753,19 +1728,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ps：俊超之前一个问题，如果按那个元素表的话，同种元素就不会有加成，那岂不算成了相克元素。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>提高火系元素的能力获得和攻击分数加成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>技能伤害百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一回合钻下地底，第二回合攻击对手。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1840,7 +1807,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1850,7 +1817,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2021,6 +1988,59 @@
   <si>
     <t>几率</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回有一定几率合拉近战斗区域的金系元素与玩家弹珠的距离</t>
+  </si>
+  <si>
+    <t>关于技能：</t>
+  </si>
+  <si>
+    <t>根据美工表技能主要分为两大类：</t>
+  </si>
+  <si>
+    <t>第一类：己方宠物施放，作用于敌方宠物，多为持续性技能。</t>
+  </si>
+  <si>
+    <t>第二类，己方宠物施放，作用于弹珠，（变成陷阱，etc）只存在一个回合。</t>
+  </si>
+  <si>
+    <t>宠物的被动技能没有动作，主动技能均包含动作</t>
+  </si>
+  <si>
+    <t>宠物形态与宠物技能以及对应部件是相应的，也就是说一形态宠物只有一形态宠物的技能，以及对应部件的成长，当宠物进化为2形态时，？？？</t>
+  </si>
+  <si>
+    <t>游戏场景内的水元素将化作水花拍击对手，每个元素有几率造成晕眩使敌方丧失行动能力一回合。并每个水元素造成基础攻击力*（）%的伤害（作用于敌方宠物）</t>
+  </si>
+  <si>
+    <t>每回合有几率净化异常负面状态</t>
+  </si>
+  <si>
+    <t>特殊状态的图标：</t>
+  </si>
+  <si>
+    <t>地洞数量随等级增加（上限3）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">场景内所有土元素转变为沙尘陷阱，持续3回合，敌方玩家的弹珠进入其周围50内将被吸入（即速度为0回合结束）
+</t>
+  </si>
+  <si>
+    <t>在弹珠区域随机出现地洞，弹珠通过地洞时将掉入地洞消失，持续一回合。不作用于敌方宠物弹珠。</t>
+  </si>
+  <si>
+    <t>关于弹珠：弹珠分为两种：1.宠物化身为的弹珠。2.属性弹珠。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在对手脚下释放大地的力量，使敌方宠物弹珠移动速度减半。持续4回合。
+</t>
+  </si>
+  <si>
+    <t>破防，击碎（作用于弹珠），灼烧</t>
+  </si>
+  <si>
+    <t>以自生重力优势冲击对手，有一定几率击晕对手。</t>
   </si>
 </sst>
 </file>
@@ -2031,7 +2051,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2042,14 +2062,14 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2057,14 +2077,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2072,7 +2092,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2086,7 +2106,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2173,7 +2193,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2201,15 +2221,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2384,10 +2395,16 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="差" xfId="1" builtinId="27"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2687,87 +2704,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" customWidth="1"/>
+    <col min="1" max="1" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="7.875" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="11" customFormat="1">
-      <c r="A8" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="B8" s="10"/>
-    </row>
-    <row r="9" spans="1:2" ht="56">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="67"/>
+    </row>
+    <row r="9" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>412</v>
+        <v>478</v>
       </c>
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="4"/>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>466</v>
+      </c>
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="4"/>
+    <row r="11" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>467</v>
+      </c>
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="4"/>
+    <row r="12" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>468</v>
+      </c>
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="4"/>
+    <row r="13" spans="1:2" ht="54" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>469</v>
+      </c>
       <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="81" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
+        <v>480</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2784,246 +2827,246 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="29.625" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="51" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="28">
-      <c r="A2" s="16" t="s">
-        <v>369</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="F1" s="48" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="13" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A10" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="28">
-      <c r="A3" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="28">
-      <c r="A5" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>372</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="D5" s="19" t="s">
+      <c r="C11" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="28">
-      <c r="A6" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>371</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="42">
-      <c r="A8" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>457</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="E8" s="21" t="s">
+      <c r="E11" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="F8" s="21" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="42">
-      <c r="A9" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>429</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="28">
-      <c r="A10" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>374</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>272</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="42">
-      <c r="A11" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>461</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="59" customFormat="1"/>
-    <row r="15" spans="1:6">
+      <c r="F11" s="18" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="56" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -3050,251 +3093,251 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="40" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="16" t="s">
+      <c r="F1" s="37" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="13" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="57" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15">
-      <c r="A3" s="52" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" s="60" t="s">
+      <c r="C3" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A4" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A5" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>344</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7" s="50" t="s">
+        <v>345</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A9" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>463</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="D3" s="17" t="s">
+      <c r="C10" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="F3" s="16" t="s">
+      <c r="E10" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="84">
-      <c r="A4" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="84">
-      <c r="A5" s="53" t="s">
-        <v>165</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>462</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="53" t="s">
-        <v>168</v>
-      </c>
-      <c r="B6" s="54" t="s">
-        <v>348</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="D6" s="20" t="s">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="28">
-      <c r="A7" s="53" t="s">
-        <v>349</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="42">
-      <c r="A8" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>467</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="E8" s="21" t="s">
+      <c r="E11" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="F8" s="21" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="56">
-      <c r="A9" s="55" t="s">
-        <v>194</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15">
-      <c r="A10" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>472</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15">
-      <c r="A11" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>351</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11" s="18" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="15">
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
     </row>
@@ -3321,9 +3364,9 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="28">
+    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3335,12 +3378,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28">
+    <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3352,12 +3395,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28">
+    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -3369,12 +3412,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28">
+    <row r="10" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -3386,12 +3429,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28">
+    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -3403,12 +3446,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="28">
+    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -3420,7 +3463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="28">
+    <row r="17" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>171</v>
       </c>
@@ -3428,7 +3471,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="28">
+    <row r="19" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -3440,12 +3483,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="28">
+    <row r="22" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -3457,12 +3500,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="28">
+    <row r="25" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -3474,7 +3517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>91</v>
       </c>
@@ -3483,7 +3526,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="28">
+    <row r="28" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -3495,12 +3538,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>132</v>
       </c>
@@ -3524,9 +3567,9 @@
       <selection activeCell="D46" sqref="A39:D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="28">
+    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3538,12 +3581,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28">
+    <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3555,12 +3598,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28">
+    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -3572,12 +3615,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28">
+    <row r="10" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -3589,12 +3632,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28">
+    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -3606,12 +3649,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="28">
+    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -3623,12 +3666,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="56">
+    <row r="17" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28">
+    <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -3640,12 +3683,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="84">
+    <row r="20" spans="1:4" ht="81" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="28">
+    <row r="21" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -3657,12 +3700,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="84">
+    <row r="22" spans="1:4" ht="81" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="28">
+    <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -3674,12 +3717,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="84">
+    <row r="25" spans="1:4" ht="81" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="28">
+    <row r="27" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -3691,12 +3734,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="28">
+    <row r="31" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -3708,12 +3751,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>106</v>
       </c>
@@ -3737,9 +3780,9 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="28">
+    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3751,12 +3794,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28">
+    <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3768,12 +3811,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28">
+    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -3785,12 +3828,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28">
+    <row r="10" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -3802,12 +3845,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28">
+    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -3819,12 +3862,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="28">
+    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -3836,12 +3879,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28">
+    <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -3853,12 +3896,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="28">
+    <row r="22" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -3870,7 +3913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="28">
+    <row r="25" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -3882,7 +3925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="28">
+    <row r="28" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -3894,7 +3937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>118</v>
       </c>
@@ -3918,9 +3961,9 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="28">
+    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3932,12 +3975,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28">
+    <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3949,12 +3992,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28">
+    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -3966,12 +4009,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28">
+    <row r="10" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -3983,7 +4026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28">
+    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -3995,7 +4038,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="28">
+    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -4007,7 +4050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28">
+    <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -4019,7 +4062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="28">
+    <row r="22" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -4031,7 +4074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>130</v>
       </c>
@@ -4055,9 +4098,9 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="28">
+    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -4069,12 +4112,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28">
+    <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -4086,12 +4129,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28">
+    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -4103,12 +4146,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28">
+    <row r="10" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -4120,12 +4163,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28">
+    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -4137,7 +4180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -4161,9 +4204,9 @@
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>120</v>
       </c>
@@ -4171,7 +4214,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>121</v>
       </c>
@@ -4179,7 +4222,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>123</v>
       </c>
@@ -4187,7 +4230,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>125</v>
       </c>
@@ -4195,7 +4238,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>127</v>
       </c>
@@ -4222,7 +4265,7 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4238,39 +4281,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.875" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>377</v>
+      <c r="E1" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>371</v>
       </c>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -4278,24 +4321,24 @@
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="1:12" ht="70">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>379</v>
+      <c r="D2" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>373</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -4303,24 +4346,24 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>380</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>379</v>
+      <c r="D3" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>373</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -4328,24 +4371,24 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="28">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>380</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>379</v>
+      <c r="D4" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>373</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -4353,24 +4396,24 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="28">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>381</v>
+      <c r="D5" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>375</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -4378,24 +4421,24 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="42">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="C6" s="18" t="s">
+      <c r="B6" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>383</v>
+      <c r="D6" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>377</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -4403,24 +4446,24 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="28">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>392</v>
-      </c>
-      <c r="C7" s="18" t="s">
+      <c r="B7" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>383</v>
+      <c r="D7" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>377</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -4428,24 +4471,24 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="28">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:12" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>355</v>
-      </c>
-      <c r="C8" s="21" t="s">
+      <c r="B8" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>384</v>
+      <c r="D8" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>378</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -4453,24 +4496,24 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="154">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:12" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>388</v>
-      </c>
-      <c r="C9" s="21" t="s">
+      <c r="B9" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>384</v>
+      <c r="D9" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>378</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -4478,24 +4521,24 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="70">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>344</v>
-      </c>
-      <c r="C10" s="21" t="s">
+      <c r="B10" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>382</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>384</v>
+      <c r="D10" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>378</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -4503,24 +4546,24 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="28">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="C11" s="21" t="s">
+      <c r="B11" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>384</v>
+      <c r="D11" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>378</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -4528,26 +4571,26 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F26" s="1"/>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B69" s="1"/>
     </row>
   </sheetData>
@@ -4570,257 +4613,257 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" customWidth="1"/>
-    <col min="3" max="3" width="32.83203125" customWidth="1"/>
+    <col min="2" max="2" width="27.125" customWidth="1"/>
+    <col min="3" max="3" width="32.875" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>376</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="42">
-      <c r="A2" s="14" t="s">
+      <c r="E1" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="14" t="s">
+      <c r="C3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="F2" s="14" t="s">
+      <c r="E3" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="175.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>380</v>
-      </c>
-      <c r="F3" s="16" t="s">
+    <row r="9" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="14" t="s">
+    <row r="10" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>380</v>
-      </c>
-      <c r="F4" s="16" t="s">
+      <c r="E11" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="F11" s="18" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="42">
-      <c r="A5" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="70">
-      <c r="A6" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>310</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="18" t="s">
-        <v>302</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="168">
-      <c r="A8" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>396</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>312</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>378</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="56">
-      <c r="A9" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>314</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>378</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="28">
-      <c r="A10" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>306</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="28">
-      <c r="A11" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>309</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="17" spans="5:5">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E17" s="1"/>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>119</v>
       </c>
@@ -4845,282 +4888,282 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="43.83203125" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="43.875" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
     <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="F1" s="27" t="s">
-        <v>376</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="29" t="s">
+      <c r="F3" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>378</v>
-      </c>
-      <c r="G2" s="28" t="s">
+      <c r="E4" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A5" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>472</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>473</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>391</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>372</v>
+      </c>
+      <c r="G8" s="34" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="D3" s="29" t="s">
+    <row r="9" spans="1:7" ht="108" x14ac:dyDescent="0.15">
+      <c r="A9" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>393</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>372</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A10" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="E3" s="30" t="s">
-        <v>316</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>380</v>
-      </c>
-      <c r="G3" s="30" t="s">
+      <c r="E10" s="34" t="s">
+        <v>394</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="G10" s="34" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="42">
-      <c r="A4" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>317</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>378</v>
-      </c>
-      <c r="G4" s="30" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>395</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="G11" s="34" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="42">
-      <c r="A5" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>321</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>320</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>378</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>286</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>397</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>380</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="28">
-      <c r="A7" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>324</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>398</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>380</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="28">
-      <c r="A8" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>323</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>399</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>378</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="98">
-      <c r="A9" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>326</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>400</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>378</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="28">
-      <c r="A10" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>401</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>380</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>325</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>402</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>380</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -5144,240 +5187,240 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
     <col min="2" max="2" width="43.5" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="37" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>326</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>328</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="41" t="s">
+        <v>334</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" s="45" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="42">
-      <c r="A2" s="41" t="s">
-        <v>334</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="42" t="s">
+    <row r="9" spans="1:6" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="E2" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="F2" s="42" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>328</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="43" t="s">
+      <c r="E9" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="E3" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="28">
-      <c r="A4" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="43" t="s">
+      <c r="E10" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="E4" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="F4" s="42" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="42">
-      <c r="A5" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>330</v>
-      </c>
-      <c r="F5" s="45" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="44" t="s">
-        <v>336</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>179</v>
-      </c>
-      <c r="F6" s="45" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>332</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="E7" s="45" t="s">
-        <v>179</v>
-      </c>
-      <c r="F7" s="45" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="42">
-      <c r="A8" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>184</v>
-      </c>
-      <c r="E8" s="48" t="s">
+      <c r="E11" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="F8" s="48" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="112">
-      <c r="A9" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>333</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>184</v>
-      </c>
-      <c r="E9" s="48" t="s">
-        <v>331</v>
-      </c>
-      <c r="F9" s="48" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="49" t="s">
-        <v>185</v>
-      </c>
-      <c r="E10" s="48" t="s">
-        <v>178</v>
-      </c>
-      <c r="F10" s="48" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>413</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="49" t="s">
-        <v>185</v>
-      </c>
-      <c r="E11" s="48" t="s">
-        <v>178</v>
-      </c>
-      <c r="F11" s="47"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F11" s="44"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -5385,12 +5428,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C17" s="5"/>
     </row>
   </sheetData>
@@ -5413,245 +5456,245 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="40" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="41" t="s">
+      <c r="F1" s="37" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A6" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="C2" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="43" t="s">
+      <c r="C7" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E2" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="F2" s="42" t="s">
+      <c r="E7" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A10" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="E11" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="F11" s="45" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="F4" s="42" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="28">
-      <c r="A5" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>375</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>179</v>
-      </c>
-      <c r="F5" s="45" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="56">
-      <c r="A6" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>179</v>
-      </c>
-      <c r="F6" s="45" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="E7" s="45" t="s">
-        <v>179</v>
-      </c>
-      <c r="F7" s="45" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="42">
-      <c r="A8" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>184</v>
-      </c>
-      <c r="E8" s="48" t="s">
-        <v>178</v>
-      </c>
-      <c r="F8" s="48" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="42">
-      <c r="A9" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>345</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>184</v>
-      </c>
-      <c r="E9" s="48" t="s">
-        <v>178</v>
-      </c>
-      <c r="F9" s="48" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="C10" s="48" t="s">
-        <v>206</v>
-      </c>
-      <c r="D10" s="49" t="s">
-        <v>185</v>
-      </c>
-      <c r="E10" s="48" t="s">
-        <v>178</v>
-      </c>
-      <c r="F10" s="48" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="28">
-      <c r="A11" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="49" t="s">
-        <v>185</v>
-      </c>
-      <c r="E11" s="48" t="s">
-        <v>178</v>
-      </c>
-      <c r="F11" s="48" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -5675,248 +5718,248 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="37" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7" s="50" t="s">
+        <v>242</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A8" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="56">
-      <c r="A2" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>432</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="D2" s="16" t="s">
+    <row r="9" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A9" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="F2" s="16" t="s">
+      <c r="E9" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A10" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="42">
-      <c r="A3" s="52" t="s">
-        <v>233</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="D3" s="16" t="s">
+    <row r="11" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="52" t="s">
+        <v>243</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="28">
-      <c r="A4" s="52" t="s">
-        <v>236</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15">
-      <c r="A5" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>240</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="53" t="s">
-        <v>225</v>
-      </c>
-      <c r="B6" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>240</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="28">
-      <c r="A7" s="53" t="s">
-        <v>242</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="42">
-      <c r="A8" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>441</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="E8" s="21" t="s">
+      <c r="E11" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="F8" s="21" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="45">
-      <c r="A9" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="B9" s="56" t="s">
-        <v>228</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="28">
-      <c r="A10" s="55" t="s">
-        <v>234</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="42">
-      <c r="A11" s="55" t="s">
-        <v>243</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11" s="18" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -5943,253 +5986,253 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" customWidth="1"/>
+    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="22.875" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="51" t="s">
-        <v>443</v>
+      <c r="F1" s="48" t="s">
+        <v>434</v>
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="56">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A2" s="57" t="s">
         <v>246</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="C2" s="42" t="s">
+      <c r="B2" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>444</v>
+      <c r="F2" s="13" t="s">
+        <v>435</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="57" t="s">
         <v>257</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>445</v>
+      <c r="F3" s="13" t="s">
+        <v>436</v>
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="28">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>446</v>
+      <c r="F4" s="13" t="s">
+        <v>437</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="42" t="s">
         <v>249</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>445</v>
+      <c r="F5" s="16" t="s">
+        <v>436</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="42">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>447</v>
+      <c r="F6" s="16" t="s">
+        <v>438</v>
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="56">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A7" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>366</v>
-      </c>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>449</v>
+      <c r="F7" s="15" t="s">
+        <v>440</v>
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="28">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="F8" s="21" t="s">
-        <v>448</v>
+      <c r="F8" s="18" t="s">
+        <v>439</v>
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="42">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="F9" s="22" t="s">
-        <v>450</v>
+      <c r="F9" s="19" t="s">
+        <v>441</v>
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="56">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A10" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>367</v>
-      </c>
-      <c r="C10" s="21" t="s">
+      <c r="B10" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="F10" s="22" t="s">
-        <v>450</v>
+      <c r="F10" s="19" t="s">
+        <v>441</v>
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="28">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>368</v>
-      </c>
-      <c r="C11" s="21" t="s">
+      <c r="B11" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>451</v>
+      <c r="F11" s="19" t="s">
+        <v>442</v>
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" s="59" customFormat="1">
-      <c r="A12" s="57"/>
-      <c r="B12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-    </row>
-    <row r="13" spans="1:7">
+    <row r="12" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="54"/>
+      <c r="B12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -6198,12 +6241,12 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -6227,239 +6270,239 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
     <col min="3" max="3" width="28.5" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
     <col min="6" max="6" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="67" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="56">
-      <c r="A2" s="68" t="s">
+      <c r="F1" s="64" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A2" s="65" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="65" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" s="65" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="65" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="65" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>221</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="C2" s="68" t="s">
-        <v>213</v>
-      </c>
-      <c r="D2" s="68" t="s">
+      <c r="C5" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="E2" s="68" t="s">
-        <v>191</v>
-      </c>
-      <c r="F2" s="68" t="s">
+      <c r="E5" s="58" t="s">
+        <v>193</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>193</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7" s="58" t="s">
+        <v>211</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>193</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A8" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" s="61" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A9" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" s="61" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="202.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="28">
-      <c r="A3" s="68" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="C3" s="68" t="s">
-        <v>214</v>
-      </c>
-      <c r="D3" s="69" t="s">
+      <c r="C10" s="61" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" s="61" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="61" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A11" s="61" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="C11" s="63"/>
+      <c r="D11" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="E3" s="68" t="s">
-        <v>191</v>
-      </c>
-      <c r="F3" s="68" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="28">
-      <c r="A4" s="68" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="C4" s="68" t="s">
-        <v>221</v>
-      </c>
-      <c r="D4" s="69" t="s">
-        <v>192</v>
-      </c>
-      <c r="E4" s="68" t="s">
-        <v>191</v>
-      </c>
-      <c r="F4" s="68" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="126">
-      <c r="A5" s="61" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="C5" s="61" t="s">
-        <v>220</v>
-      </c>
-      <c r="D5" s="61" t="s">
-        <v>190</v>
-      </c>
-      <c r="E5" s="61" t="s">
-        <v>193</v>
-      </c>
-      <c r="F5" s="61" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="42">
-      <c r="A6" s="61" t="s">
-        <v>359</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>360</v>
-      </c>
-      <c r="C6" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="D6" s="61" t="s">
-        <v>190</v>
-      </c>
-      <c r="E6" s="61" t="s">
-        <v>193</v>
-      </c>
-      <c r="F6" s="61" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="28">
-      <c r="A7" s="61" t="s">
-        <v>211</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>361</v>
-      </c>
-      <c r="C7" s="61" t="s">
-        <v>218</v>
-      </c>
-      <c r="D7" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="E7" s="61" t="s">
-        <v>193</v>
-      </c>
-      <c r="F7" s="61" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="84">
-      <c r="A8" s="63" t="s">
-        <v>159</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>362</v>
-      </c>
-      <c r="C8" s="64" t="s">
-        <v>217</v>
-      </c>
-      <c r="D8" s="64" t="s">
-        <v>212</v>
-      </c>
-      <c r="E8" s="64" t="s">
+      <c r="E11" s="61" t="s">
         <v>195</v>
       </c>
-      <c r="F8" s="64" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="28">
-      <c r="A9" s="64" t="s">
-        <v>155</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="C9" s="64" t="s">
-        <v>216</v>
-      </c>
-      <c r="D9" s="65" t="s">
-        <v>192</v>
-      </c>
-      <c r="E9" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="F9" s="64" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="210">
-      <c r="A10" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>427</v>
-      </c>
-      <c r="C10" s="64" t="s">
-        <v>215</v>
-      </c>
-      <c r="D10" s="64" t="s">
-        <v>190</v>
-      </c>
-      <c r="E10" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="F10" s="64" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="56">
-      <c r="A11" s="64" t="s">
-        <v>209</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="65" t="s">
-        <v>192</v>
-      </c>
-      <c r="E11" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="F11" s="64" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11" s="61" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -6467,21 +6510,21 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="15">
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
     </row>

--- a/策划文档/宠物技能.xlsx
+++ b/策划文档/宠物技能.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BLACSTAR\Documents\GitHub\PixelPixie\策划文档\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="24615" windowHeight="15225" tabRatio="845"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="23910" windowHeight="9255" tabRatio="845" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="6" r:id="rId1"/>
@@ -41,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="483">
   <si>
     <t>金刚之躯</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -634,10 +629,6 @@
   </si>
   <si>
     <t>净化之雾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>周围生成特殊气体，消除异常状态并提高闪避</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1335,10 +1326,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>战斗区域内敌方玩家弹球摩擦系数翻倍，影响敌方行动回合3回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>自身弹球附近出现漩涡，敌方玩家弹球触碰减少其速度与下一回合防御值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1491,10 +1478,6 @@
   </si>
   <si>
     <t>用毒针进行攻击，一定几率使对手陷入中毒状态减少敌方弹珠移动速度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>身体出现毒菱尖刺，敌方行动回合内有几率出现一个毒元素，触碰后敌方受到持续毒素伤害</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1878,10 +1861,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>闪避提升百分数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>技能伤害百分数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2009,9 +1988,6 @@
   </si>
   <si>
     <t>宠物形态与宠物技能以及对应部件是相应的，也就是说一形态宠物只有一形态宠物的技能，以及对应部件的成长，当宠物进化为2形态时，？？？</t>
-  </si>
-  <si>
-    <t>游戏场景内的水元素将化作水花拍击对手，每个元素有几率造成晕眩使敌方丧失行动能力一回合。并每个水元素造成基础攻击力*（）%的伤害（作用于敌方宠物）</t>
   </si>
   <si>
     <t>每回合有几率净化异常负面状态</t>
@@ -2027,9 +2003,6 @@
 </t>
   </si>
   <si>
-    <t>在弹珠区域随机出现地洞，弹珠通过地洞时将掉入地洞消失，持续一回合。不作用于敌方宠物弹珠。</t>
-  </si>
-  <si>
     <t>关于弹珠：弹珠分为两种：1.宠物化身为的弹珠。2.属性弹珠。</t>
   </si>
   <si>
@@ -2041,13 +2014,41 @@
   </si>
   <si>
     <t>以自生重力优势冲击对手，有一定几率击晕对手。</t>
+  </si>
+  <si>
+    <t>游戏场景内的水元素将化作海啸拍击对手，每个元素有几率造成晕眩使敌方丧失行动能力一回合。并每个水元素造成基础攻击力*（）%的伤害（作用于敌方宠物）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗区域内敌方玩家弹球摩擦系数翻倍，影响敌方行动回合3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在弹珠区域随机出现地洞，弹珠通过地洞时将掉入地洞消失，持续两回合。不作用于己方增益弹珠。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周围生成特殊气体可吸收一定伤害（吸收伤害最大值=本回合内吸收元素数*100），消除异常状态，持续4回合）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒之迷雾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩散迷雾缩小敌方玩家视野，并每回合对敌方造成生命上限百分之5%的持续伤害，并减少敌方弹珠最高移动速度50%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体出现毒菱尖刺，敌方触碰到己方弹珠，造成毒素伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2111,6 +2112,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -2161,7 +2170,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2184,6 +2193,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2193,7 +2211,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2400,6 +2418,24 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2703,14 +2739,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="22.375" customWidth="1"/>
     <col min="3" max="3" width="10.625" customWidth="1"/>
@@ -2720,91 +2756,91 @@
     <col min="8" max="8" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="5"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.15">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="68" customFormat="1">
       <c r="A8" s="67"/>
     </row>
-    <row r="9" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="40.5">
       <c r="A9" s="4" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:2" ht="27">
+      <c r="A11" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:2" ht="40.5">
+      <c r="A12" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:2" ht="54">
+      <c r="A13" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:2" ht="27">
+      <c r="A14" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="81">
+      <c r="A15" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="B12" s="5"/>
-    </row>
-    <row r="13" spans="1:2" ht="54" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="81" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
+    </row>
+    <row r="17" spans="1:1" ht="27">
+      <c r="A17" s="4" t="s">
         <v>474</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
-        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -2820,14 +2856,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="29.625" customWidth="1"/>
@@ -2836,7 +2872,7 @@
     <col min="5" max="5" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="27">
       <c r="A1" s="22" t="s">
         <v>136</v>
       </c>
@@ -2853,220 +2889,220 @@
         <v>141</v>
       </c>
       <c r="F1" s="48" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="27">
       <c r="A2" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27">
+      <c r="A3" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="27">
+      <c r="A5" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="C5" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="27">
+      <c r="A6" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="40.5">
+      <c r="A8" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="40.5">
+      <c r="A9" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="27">
+      <c r="A10" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="B10" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="F10" s="18" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="40.5">
+      <c r="A11" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="F6" s="16" t="s">
+      <c r="F11" s="18" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>448</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>420</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>452</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="56" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" s="56" customFormat="1"/>
+    <row r="15" spans="1:6">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="A16" s="4"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -3086,14 +3122,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="33.375" customWidth="1"/>
@@ -3103,7 +3139,7 @@
     <col min="6" max="6" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="21" t="s">
         <v>136</v>
       </c>
@@ -3120,224 +3156,224 @@
         <v>141</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.25">
+      <c r="A3" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>450</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="81">
+      <c r="A4" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="B4" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F4" s="13" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="81">
+      <c r="A5" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.5">
+      <c r="A6" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>342</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="49" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" s="57" t="s">
+      <c r="E6" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="27">
+      <c r="A7" s="50" t="s">
+        <v>343</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="40.5">
+      <c r="A8" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>454</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="C8" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="40.5">
+      <c r="A9" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.25">
+      <c r="A10" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="A4" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="E10" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.25">
+      <c r="A11" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="A5" s="50" t="s">
-        <v>165</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>453</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>344</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="50" t="s">
-        <v>345</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="F7" s="16" t="s">
+      <c r="E11" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="F11" s="18" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>458</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A9" s="52" t="s">
-        <v>194</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>462</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="52" t="s">
-        <v>169</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>463</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="52" t="s">
-        <v>170</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>347</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>196</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="4"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="14.25">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
     </row>
@@ -3357,16 +3393,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="27">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3378,12 +3414,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="27">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3395,12 +3431,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="27">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -3412,12 +3448,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="27">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -3429,12 +3465,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="27">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -3446,12 +3482,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="27">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -3463,15 +3499,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="27">
       <c r="A17" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:8" ht="27">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -3483,12 +3519,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="27">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -3500,12 +3536,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="27">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -3517,7 +3553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>91</v>
       </c>
@@ -3526,7 +3562,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" ht="27">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -3538,12 +3574,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>132</v>
       </c>
@@ -3560,16 +3596,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D46" sqref="A39:D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="27">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3581,12 +3617,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="27">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3598,12 +3634,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="27">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -3615,12 +3651,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="27">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -3632,12 +3668,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="27">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -3649,12 +3685,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="27">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -3666,12 +3702,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="54">
       <c r="A17" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="27">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -3683,12 +3719,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="81">
       <c r="A20" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="27">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -3700,12 +3736,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="94.5">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="27">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -3717,12 +3753,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="81">
       <c r="A25" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" ht="27">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -3734,12 +3770,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="27">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -3751,12 +3787,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>106</v>
       </c>
@@ -3773,16 +3809,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="27">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3794,12 +3830,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="27">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3811,12 +3847,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="27">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -3828,12 +3864,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="27">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -3845,12 +3881,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="27">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -3862,12 +3898,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="27">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -3879,12 +3915,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="27">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -3896,12 +3932,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="27">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -3913,7 +3949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="27">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -3925,7 +3961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="27">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -3937,7 +3973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>118</v>
       </c>
@@ -3954,16 +3990,16 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="27">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3975,12 +4011,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="27">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3992,12 +4028,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="27">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -4009,12 +4045,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="27">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -4026,7 +4062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="27">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -4038,7 +4074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="27">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -4050,7 +4086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="27">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -4062,7 +4098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="27">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -4074,7 +4110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>130</v>
       </c>
@@ -4091,16 +4127,16 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="27">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -4112,12 +4148,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="27">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -4129,12 +4165,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="27">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -4146,12 +4182,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="27">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -4163,12 +4199,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="27">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -4180,7 +4216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -4197,16 +4233,16 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A9:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>120</v>
       </c>
@@ -4214,7 +4250,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>121</v>
       </c>
@@ -4222,7 +4258,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>123</v>
       </c>
@@ -4230,7 +4266,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>125</v>
       </c>
@@ -4238,7 +4274,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>127</v>
       </c>
@@ -4258,14 +4294,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4278,14 +4314,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.875" customWidth="1"/>
@@ -4296,7 +4332,7 @@
     <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="7" customFormat="1">
       <c r="A1" s="9" t="s">
         <v>136</v>
       </c>
@@ -4307,13 +4343,13 @@
         <v>138</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -4321,24 +4357,24 @@
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="67.5">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>134</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -4346,24 +4382,24 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -4371,24 +4407,24 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="27">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>140</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -4396,24 +4432,24 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="27">
       <c r="A5" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E5" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>372</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>375</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -4421,24 +4457,24 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="40.5">
       <c r="A6" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>75</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -4446,24 +4482,24 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="27">
       <c r="A7" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>135</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E7" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>374</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>377</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -4471,24 +4507,24 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="65.25" customHeight="1">
       <c r="A8" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>174</v>
-      </c>
       <c r="D8" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -4496,24 +4532,24 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" ht="148.5">
       <c r="A9" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -4521,24 +4557,24 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="67.5">
       <c r="A10" s="19" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -4546,24 +4582,24 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="27">
       <c r="A11" s="19" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -4571,26 +4607,26 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="A13" s="5"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17" s="5"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6">
       <c r="F26" s="1"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:2">
       <c r="B69" s="1"/>
     </row>
   </sheetData>
@@ -4609,14 +4645,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -4626,7 +4662,7 @@
     <col min="6" max="6" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="21" t="s">
         <v>136</v>
       </c>
@@ -4637,76 +4673,76 @@
         <v>138</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="40.5">
       <c r="A2" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>299</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>300</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>42</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="40.5">
       <c r="A5" s="15" t="s">
         <v>21</v>
       </c>
@@ -4714,156 +4750,156 @@
         <v>36</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E5" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>372</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:6" ht="67.5">
       <c r="A6" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E6" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>372</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="C7" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="175.5" x14ac:dyDescent="0.15">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="162">
       <c r="A8" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="54">
       <c r="A9" s="19" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="27">
       <c r="A10" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="27">
       <c r="A11" s="19" t="s">
         <v>43</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>44</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="5"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="4"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="5:5">
       <c r="E17" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
         <v>119</v>
       </c>
@@ -4884,14 +4920,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.375" customWidth="1"/>
     <col min="2" max="2" width="43.875" customWidth="1"/>
@@ -4902,7 +4938,7 @@
     <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="23" t="s">
         <v>136</v>
       </c>
@@ -4916,16 +4952,16 @@
         <v>139</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="25" t="s">
         <v>9</v>
       </c>
@@ -4936,139 +4972,139 @@
         <v>46</v>
       </c>
       <c r="D2" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>364</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>308</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>372</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>367</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>185</v>
-      </c>
       <c r="E3" s="27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="40.5">
       <c r="A4" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C4" s="27" t="s">
         <v>73</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="27">
       <c r="A5" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>472</v>
+      <c r="B5" s="70" t="s">
+        <v>477</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>77</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F5" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="G5" s="31" t="s">
         <v>372</v>
       </c>
-      <c r="G5" s="31" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="29" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="27">
       <c r="A7" s="29" t="s">
         <v>50</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>76</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="54">
       <c r="A8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="33" t="s">
-        <v>321</v>
+      <c r="B8" s="69" t="s">
+        <v>476</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>79</v>
@@ -5077,93 +5113,92 @@
         <v>133</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="108" x14ac:dyDescent="0.15">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="94.5">
       <c r="A9" s="33" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>69</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="27">
       <c r="A10" s="33" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="33" t="s">
         <v>49</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C11" s="33" t="s">
         <v>51</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="4"/>
-      <c r="B14" s="6"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -5174,6 +5209,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5183,14 +5219,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.125" customWidth="1"/>
     <col min="2" max="2" width="43.5" customWidth="1"/>
@@ -5199,7 +5235,7 @@
     <col min="6" max="6" width="19.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="37" t="s">
         <v>136</v>
       </c>
@@ -5216,12 +5252,12 @@
         <v>141</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="40.5">
       <c r="A2" s="38" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>52</v>
@@ -5230,56 +5266,56 @@
         <v>67</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C3" s="38" t="s">
         <v>56</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27">
       <c r="A4" s="38" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>53</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="40.5">
       <c r="A5" s="41" t="s">
         <v>8</v>
       </c>
@@ -5290,150 +5326,150 @@
         <v>72</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>334</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>336</v>
       </c>
       <c r="C6" s="41" t="s">
         <v>71</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="41" t="s">
         <v>57</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C7" s="41" t="s">
         <v>62</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="40.5">
       <c r="A8" s="44" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C8" s="44" t="s">
         <v>70</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="121.5" x14ac:dyDescent="0.15">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="121.5">
       <c r="A9" s="44" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>74</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="44" t="s">
         <v>59</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C10" s="44" t="s">
         <v>58</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="44" t="s">
         <v>60</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C11" s="44" t="s">
         <v>61</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E11" s="45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F11" s="44"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="4"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="E15" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="5"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:3">
       <c r="C17" s="5"/>
     </row>
   </sheetData>
@@ -5452,14 +5488,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
@@ -5469,7 +5505,7 @@
     <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="21" t="s">
         <v>136</v>
       </c>
@@ -5486,215 +5522,215 @@
         <v>141</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="38" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C2" s="38" t="s">
         <v>63</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="38" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C3" s="38" t="s">
         <v>84</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="40.5">
       <c r="A4" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>477</v>
+      <c r="B4" s="71" t="s">
+        <v>478</v>
       </c>
       <c r="C4" s="38" t="s">
         <v>83</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="27">
       <c r="A5" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C5" s="41" t="s">
         <v>81</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="54">
       <c r="A6" s="41" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C6" s="42" t="s">
         <v>82</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="41" t="s">
         <v>64</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="40.5">
       <c r="A8" s="44" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="40.5">
       <c r="A9" s="44" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C9" s="45" t="s">
         <v>85</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="44" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="27">
       <c r="A11" s="44" t="s">
         <v>66</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C11" s="44" t="s">
         <v>80</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E11" s="45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="4"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="5"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -5714,14 +5750,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" customWidth="1"/>
@@ -5730,7 +5766,7 @@
     <col min="5" max="5" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="47" t="s">
         <v>136</v>
       </c>
@@ -5747,219 +5783,219 @@
         <v>141</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="54">
       <c r="A2" s="11" t="s">
         <v>142</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="40.5">
+      <c r="A3" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27">
+      <c r="A4" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.25">
+      <c r="A5" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="49" t="s">
-        <v>233</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>481</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>230</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="49" t="s">
-        <v>236</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="B5" s="16" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="28.5">
+      <c r="A6" s="50" t="s">
         <v>224</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>237</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>240</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="50" t="s">
-        <v>225</v>
       </c>
       <c r="B6" s="51" t="s">
         <v>144</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="27">
       <c r="A7" s="50" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>146</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="40.5">
       <c r="A8" s="18" t="s">
         <v>143</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="42.75">
       <c r="A9" s="52" t="s">
         <v>145</v>
       </c>
       <c r="B9" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>229</v>
-      </c>
       <c r="D9" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="27">
       <c r="A10" s="52" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>235</v>
-      </c>
       <c r="C10" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="40.5">
       <c r="A11" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>433</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>244</v>
-      </c>
       <c r="D11" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="4"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -5979,14 +6015,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.625" customWidth="1"/>
@@ -5995,7 +6031,7 @@
     <col min="5" max="5" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="27">
       <c r="A1" s="22" t="s">
         <v>136</v>
       </c>
@@ -6012,93 +6048,93 @@
         <v>141</v>
       </c>
       <c r="F1" s="48" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="54">
       <c r="A2" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>247</v>
-      </c>
       <c r="D2" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="28.5">
       <c r="A3" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="54">
       <c r="A4" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>150</v>
+      <c r="B4" s="71" t="s">
+        <v>479</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>251</v>
-      </c>
       <c r="C5" s="42" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="40.5">
       <c r="A6" s="16" t="s">
         <v>147</v>
       </c>
@@ -6106,125 +6142,130 @@
         <v>148</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F6" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="27">
+      <c r="A7" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="74" t="s">
+        <v>482</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="27">
+      <c r="A8" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="189">
+      <c r="A9" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="G9" s="72" t="s">
+        <v>480</v>
+      </c>
+      <c r="H9" s="73" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="54">
+      <c r="A10" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="27">
+      <c r="A11" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="F11" s="19" t="s">
         <v>438</v>
       </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A7" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>439</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>441</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A10" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>441</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>442</v>
-      </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" s="56" customFormat="1">
       <c r="A12" s="54"/>
       <c r="B12" s="55"/>
       <c r="D12" s="55"/>
@@ -6232,7 +6273,7 @@
       <c r="F12" s="55"/>
       <c r="G12" s="55"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="4"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -6241,12 +6282,12 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -6257,7 +6298,7 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6267,14 +6308,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.375" customWidth="1"/>
     <col min="2" max="2" width="18.625" customWidth="1"/>
@@ -6284,7 +6325,7 @@
     <col min="6" max="6" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="47" t="s">
         <v>136</v>
       </c>
@@ -6301,208 +6342,208 @@
         <v>141</v>
       </c>
       <c r="F1" s="64" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="54">
       <c r="A2" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" s="65" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27">
+      <c r="A3" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="F3" s="65" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27">
+      <c r="A4" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="121.5">
+      <c r="A5" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>192</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="40.5">
+      <c r="A6" s="58" t="s">
+        <v>352</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>192</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="27">
+      <c r="A7" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>192</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="81">
+      <c r="A8" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" s="61" t="s">
+        <v>211</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>194</v>
+      </c>
+      <c r="F8" s="61" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="27">
+      <c r="A9" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="C2" s="65" t="s">
-        <v>213</v>
-      </c>
-      <c r="D2" s="65" t="s">
-        <v>190</v>
-      </c>
-      <c r="E2" s="65" t="s">
+      <c r="B9" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="F2" s="65" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="65" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C3" s="65" t="s">
+      <c r="E9" s="61" t="s">
+        <v>194</v>
+      </c>
+      <c r="F9" s="61" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="202.5">
+      <c r="A10" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="C10" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="D3" s="66" t="s">
-        <v>192</v>
-      </c>
-      <c r="E3" s="65" t="s">
-        <v>191</v>
-      </c>
-      <c r="F3" s="65" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="65" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="C4" s="65" t="s">
-        <v>221</v>
-      </c>
-      <c r="D4" s="66" t="s">
-        <v>192</v>
-      </c>
-      <c r="E4" s="65" t="s">
-        <v>191</v>
-      </c>
-      <c r="F4" s="65" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>220</v>
-      </c>
-      <c r="D5" s="58" t="s">
-        <v>190</v>
-      </c>
-      <c r="E5" s="58" t="s">
-        <v>193</v>
-      </c>
-      <c r="F5" s="58" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="58" t="s">
-        <v>354</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="C6" s="58" t="s">
-        <v>219</v>
-      </c>
-      <c r="D6" s="58" t="s">
-        <v>190</v>
-      </c>
-      <c r="E6" s="58" t="s">
-        <v>193</v>
-      </c>
-      <c r="F6" s="58" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="58" t="s">
-        <v>211</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>218</v>
-      </c>
-      <c r="D7" s="59" t="s">
-        <v>192</v>
-      </c>
-      <c r="E7" s="58" t="s">
-        <v>193</v>
-      </c>
-      <c r="F7" s="58" t="s">
+      <c r="D10" s="61" t="s">
+        <v>189</v>
+      </c>
+      <c r="E10" s="61" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="61" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="A8" s="60" t="s">
-        <v>159</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="C8" s="61" t="s">
-        <v>217</v>
-      </c>
-      <c r="D8" s="61" t="s">
-        <v>212</v>
-      </c>
-      <c r="E8" s="61" t="s">
-        <v>195</v>
-      </c>
-      <c r="F8" s="61" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9" s="61" t="s">
-        <v>155</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="C9" s="61" t="s">
-        <v>216</v>
-      </c>
-      <c r="D9" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="E9" s="61" t="s">
-        <v>195</v>
-      </c>
-      <c r="F9" s="61" t="s">
+    <row r="11" spans="1:6" ht="54">
+      <c r="A11" s="61" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>416</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="202.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>418</v>
-      </c>
-      <c r="C10" s="61" t="s">
-        <v>215</v>
-      </c>
-      <c r="D10" s="61" t="s">
-        <v>190</v>
-      </c>
-      <c r="E10" s="61" t="s">
-        <v>195</v>
-      </c>
-      <c r="F10" s="61" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A11" s="61" t="s">
-        <v>209</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>419</v>
       </c>
       <c r="C11" s="63"/>
       <c r="D11" s="62" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E11" s="61" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F11" s="61" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -6510,21 +6551,21 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="4"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="14.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
     </row>

--- a/策划文档/宠物技能.xlsx
+++ b/策划文档/宠物技能.xlsx
@@ -2455,6 +2455,1089 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238123</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12220575" y="847724"/>
+          <a:ext cx="866773" cy="542926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>发芽</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>90489</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>481013</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="形状 3"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="11939588" y="1038226"/>
+          <a:ext cx="361951" cy="1066799"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>733425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13315950" y="1790700"/>
+          <a:ext cx="923925" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>木系掌控</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>704851</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11134725" y="1752601"/>
+          <a:ext cx="904875" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>木防加成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>252413</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="形状 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12658725" y="1571625"/>
+          <a:ext cx="1119188" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>704851</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>90488</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直接箭头连接符 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="24" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11582400" y="2247901"/>
+          <a:ext cx="4763" cy="676274"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>800100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="矩形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11125200" y="2924175"/>
+          <a:ext cx="914400" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>巨木降临</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>819150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="矩形 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12782550" y="2943225"/>
+          <a:ext cx="914400" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>阳光普照</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>828675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="矩形 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13992225" y="2952750"/>
+          <a:ext cx="914400" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>木旋风</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>733426</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>252413</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>371476</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="肘形连接符 29"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="25" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="13175457" y="2340769"/>
+          <a:ext cx="666750" cy="538163"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>252414</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>733424</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>380999</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="形状 31"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="26" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="13775532" y="2278856"/>
+          <a:ext cx="676275" cy="671512"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1771650</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="TextBox 36"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10382250" y="4343400"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1457325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1914525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="矩形 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11106150" y="4029075"/>
+          <a:ext cx="962025" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>森林瞬起</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1466850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1914525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="矩形 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13973175" y="4038600"/>
+          <a:ext cx="914400" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>木龙冲击</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>800100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>90488</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1457325</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直接箭头连接符 41"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="2"/>
+          <a:endCxn id="38" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11582400" y="3371850"/>
+          <a:ext cx="4763" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>828675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1466850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="直接箭头连接符 52"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="2"/>
+          <a:endCxn id="40" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14430375" y="3400425"/>
+          <a:ext cx="19050" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="矩形 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12249150" y="4953000"/>
+          <a:ext cx="914400" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>光合作用</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="矩形 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13344525" y="4962525"/>
+          <a:ext cx="914400" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>木之誓言</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>819150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="肘形连接符 64"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="2"/>
+          <a:endCxn id="62" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="12192000" y="3905250"/>
+          <a:ext cx="1562100" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>819149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>333374</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="肘形连接符 66"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="2"/>
+          <a:endCxn id="63" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="12734925" y="3895724"/>
+          <a:ext cx="1571625" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -4648,8 +5731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -4911,6 +5994,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/策划文档/宠物技能.xlsx
+++ b/策划文档/宠物技能.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="23910" windowHeight="9255" tabRatio="845" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="23910" windowHeight="9255" tabRatio="845" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="6" r:id="rId1"/>
@@ -2459,6 +2459,2281 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>704850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10401300" y="876300"/>
+          <a:ext cx="923925" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>金钱投掷</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9572625" y="1724025"/>
+          <a:ext cx="847725" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>身体进化</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="1724025"/>
+          <a:ext cx="847725" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>敛财术</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>633413</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>614363</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="肘形连接符 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10248901" y="1109663"/>
+          <a:ext cx="361950" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>614363</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>157163</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="肘形连接符 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="11129963" y="1095375"/>
+          <a:ext cx="361950" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="矩形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10877550" y="2581275"/>
+          <a:ext cx="904875" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>金属音</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>266699</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="矩形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12030075" y="2581274"/>
+          <a:ext cx="876300" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>金属爆破</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>504825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9925050" y="3248025"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="矩形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9563100" y="2562225"/>
+          <a:ext cx="847725" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>金刚之躯</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>762001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>447676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="矩形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9572625" y="3505201"/>
+          <a:ext cx="819150" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>金系掌控</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>781051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>409576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="矩形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12039600" y="3524251"/>
+          <a:ext cx="876300" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>金钱炸弹</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>771526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>419101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="矩形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10896600" y="3514726"/>
+          <a:ext cx="876300" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>破灭之愿</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>876300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1381125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="矩形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9563100" y="4448175"/>
+          <a:ext cx="857250" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>金刺外壳</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>981075</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9944100" y="4552950"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1295400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10191750" y="4867275"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>623888</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>633413</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直接箭头连接符 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="17" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9986963" y="2152650"/>
+          <a:ext cx="9525" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>404813</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>276226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>157163</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="肘形连接符 26"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="14" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="11334751" y="2157413"/>
+          <a:ext cx="419100" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>157164</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>276224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180973</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="肘形连接符 28"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="15" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="11903870" y="2016918"/>
+          <a:ext cx="419099" cy="709612"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>623889</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>762001</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="肘形连接符 30"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="2"/>
+          <a:endCxn id="18" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9727407" y="3245644"/>
+          <a:ext cx="514351" cy="4763"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>447676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>876300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="肘形连接符 32"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="2"/>
+          <a:endCxn id="21" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="9772650" y="4229100"/>
+          <a:ext cx="428624" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>404813</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>771526</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="肘形连接符 34"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="2"/>
+          <a:endCxn id="20" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="11070431" y="3250407"/>
+          <a:ext cx="523876" cy="4762"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>266699</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>781051</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="肘形连接符 36"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="2"/>
+          <a:endCxn id="19" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="12215811" y="3262312"/>
+          <a:ext cx="514352" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>514350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>828675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10868025" y="1038225"/>
+          <a:ext cx="885825" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>落石</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>447675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11934825" y="1685925"/>
+          <a:ext cx="885825" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>岩崩</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10353675" y="1638300"/>
+          <a:ext cx="885825" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>隐蔽沙砾</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>666750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>981075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10820400" y="2219325"/>
+          <a:ext cx="885825" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>硬化装甲</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>666750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>981075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9601200" y="2219325"/>
+          <a:ext cx="885825" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>广阔防御</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>666750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>981075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11934825" y="2219325"/>
+          <a:ext cx="885825" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>岩石封杀</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10829925" y="2895600"/>
+          <a:ext cx="885825" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>力量宝石</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矩形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9582150" y="2876550"/>
+          <a:ext cx="885825" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>岩之誓言</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矩形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11944350" y="2895600"/>
+          <a:ext cx="885825" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>山崩</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矩形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10772775" y="3629025"/>
+          <a:ext cx="885825" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>岩石爆破</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>828675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="肘形连接符 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10910888" y="1238250"/>
+          <a:ext cx="285750" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>52389</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>828674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>442914</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="肘形连接符 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="11677651" y="985837"/>
+          <a:ext cx="333375" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>138113</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>400051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>666751</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="肘形连接符 27"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10287001" y="1709738"/>
+          <a:ext cx="266700" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>666750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="肘形连接符 29"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="10896600" y="1852612"/>
+          <a:ext cx="266700" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>442913</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>447675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>442913</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>666750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直接箭头连接符 31"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12377738" y="2000250"/>
+          <a:ext cx="0" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>981075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>138113</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直接箭头连接符 36"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10025063" y="2533650"/>
+          <a:ext cx="19050" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>981075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>14288</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直接箭头连接符 39"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11263313" y="2533650"/>
+          <a:ext cx="9525" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>442913</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>981075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>452438</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直接箭头连接符 42"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12377738" y="2533650"/>
+          <a:ext cx="9525" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>633412</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="肘形连接符 44"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="10401300" y="2814637"/>
+          <a:ext cx="438150" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>633413</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>266701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>452438</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>342901</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="肘形连接符 46"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="11591926" y="2833688"/>
+          <a:ext cx="419100" cy="1171575"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -3513,6 +5788,7443 @@
           <a:avLst>
             <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11344275" y="619125"/>
+          <a:ext cx="790575" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>水枪</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>676275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11191875" y="2105025"/>
+          <a:ext cx="790575" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>漩涡</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>676275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10125075" y="2105025"/>
+          <a:ext cx="790575" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>液态圈</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12077700" y="2114550"/>
+          <a:ext cx="790575" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>水花</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>971550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12077700" y="3543300"/>
+          <a:ext cx="790575" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>水之掌控</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>714375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11191875" y="2828925"/>
+          <a:ext cx="790575" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>海啸</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>714375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12077700" y="2828925"/>
+          <a:ext cx="790575" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>水之誓言</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>676275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矩形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10134600" y="2790825"/>
+          <a:ext cx="790575" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>终极水柱</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矩形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12077700" y="1304925"/>
+          <a:ext cx="790575" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>水泡</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矩形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10658475" y="1276350"/>
+          <a:ext cx="790575" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>水遁</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2847975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3790950" y="5181600"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>671514</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4764</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>247649</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="肘形连接符 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="11296651" y="833437"/>
+          <a:ext cx="200025" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="肘形连接符 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="11991975" y="823912"/>
+          <a:ext cx="228600" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>138114</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>671514</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>219074</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="肘形连接符 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10601326" y="1652587"/>
+          <a:ext cx="371475" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>671514</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>528639</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>219074</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="肘形连接符 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="11134726" y="1652587"/>
+          <a:ext cx="371475" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>61913</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>61913</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直接箭头连接符 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12472988" y="1762125"/>
+          <a:ext cx="0" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>61913</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>61913</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直接箭头连接符 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12472988" y="2571750"/>
+          <a:ext cx="0" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>61913</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>714375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>61913</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>971550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直接箭头连接符 26"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12472988" y="3286125"/>
+          <a:ext cx="0" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>138113</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>676275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>147638</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直接箭头连接符 28"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10520363" y="2562225"/>
+          <a:ext cx="9525" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>528638</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>676275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>528638</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直接箭头连接符 32"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11587163" y="2562225"/>
+          <a:ext cx="0" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12011025" y="1009650"/>
+          <a:ext cx="790575" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>灼烧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>409575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12649200" y="1609725"/>
+          <a:ext cx="790575" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>火焰盾</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>409575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11391900" y="1609725"/>
+          <a:ext cx="790575" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>烟幕</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13268325" y="2390775"/>
+          <a:ext cx="790575" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>炼狱</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12392025" y="2390775"/>
+          <a:ext cx="790575" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>火焰箭</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11391900" y="2428875"/>
+          <a:ext cx="790575" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>喷射火焰</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>495300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>857250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11391900" y="3067050"/>
+          <a:ext cx="790575" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>火之誓言</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1190625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矩形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11372850" y="3762375"/>
+          <a:ext cx="790575" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>火焰之舞</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>885825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矩形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13277850" y="3095625"/>
+          <a:ext cx="790575" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>火焰漩涡</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>514350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>876300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矩形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12392025" y="3086100"/>
+          <a:ext cx="790575" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>燃烧灭却</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1952625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3257550" y="2324100"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>585789</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>528639</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>409575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="肘形连接符 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="11977689" y="1181100"/>
+          <a:ext cx="238125" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>528638</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>490538</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>409574</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="肘形连接符 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="12606338" y="1171574"/>
+          <a:ext cx="238125" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>585788</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>585788</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直接箭头连接符 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11787188" y="1971675"/>
+          <a:ext cx="0" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>233363</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>490538</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>333376</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="肘形连接符 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="12706351" y="2052638"/>
+          <a:ext cx="419100" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>490537</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="肘形连接符 23"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="13144500" y="1871662"/>
+          <a:ext cx="419100" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>585788</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>585788</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>495300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直接箭头连接符 30"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11787188" y="2790825"/>
+          <a:ext cx="0" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>566738</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>857250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>585788</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1190625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直接箭头连接符 32"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11768138" y="3429000"/>
+          <a:ext cx="19050" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>233363</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>233363</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>514350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直接箭头连接符 36"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12787313" y="2752725"/>
+          <a:ext cx="0" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>433388</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>442913</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直接箭头连接符 38"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13663613" y="2752725"/>
+          <a:ext cx="9525" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12811125" y="1714500"/>
+          <a:ext cx="942975" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>扬沙</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11906250" y="1095375"/>
+          <a:ext cx="942975" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>挖洞</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11153775" y="1714500"/>
+          <a:ext cx="942975" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>地震</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11744325" y="2400300"/>
+          <a:ext cx="942975" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>震级变化</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10525125" y="2400300"/>
+          <a:ext cx="942975" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>土之誓言</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12830175" y="2419350"/>
+          <a:ext cx="942975" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>沙尘暴</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10534650" y="3771900"/>
+          <a:ext cx="942975" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>大地之力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矩形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10525125" y="3095625"/>
+          <a:ext cx="942975" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>稳如泰山</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矩形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11753850" y="3105150"/>
+          <a:ext cx="942975" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>地裂</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矩形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12849225" y="3114675"/>
+          <a:ext cx="942975" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>土流大河</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>233364</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>309564</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="肘形连接符 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="11891964" y="1228725"/>
+          <a:ext cx="219075" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>309563</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>538163</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>342899</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="肘形连接符 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="2" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="12720638" y="1152524"/>
+          <a:ext cx="219075" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>280988</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>233363</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="形状 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="11168063" y="1943100"/>
+          <a:ext cx="285750" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>233363</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>147638</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="肘形连接符 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="11777663" y="1962150"/>
+          <a:ext cx="285750" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>538163</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>557213</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直接箭头连接符 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13282613" y="2114550"/>
+          <a:ext cx="19050" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>280988</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>280988</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直接箭头连接符 28"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10996613" y="2800350"/>
+          <a:ext cx="0" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>147638</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>157163</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直接箭头连接符 30"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12215813" y="2800350"/>
+          <a:ext cx="9525" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>557213</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>576263</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直接箭头连接符 32"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13301663" y="2819400"/>
+          <a:ext cx="19050" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>280988</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>290513</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直接箭头连接符 34"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10996613" y="3495675"/>
+          <a:ext cx="9525" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="1038225"/>
+          <a:ext cx="838200" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>钢之爪</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10639425" y="1657350"/>
+          <a:ext cx="838200" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>齿轮转动</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9153525" y="1666875"/>
+          <a:ext cx="838200" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>重力炸弹</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8610600" y="2428875"/>
+          <a:ext cx="838200" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>钢制刃甲</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9629775" y="2428875"/>
+          <a:ext cx="838200" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>钢之壁垒</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10648950" y="2447925"/>
+          <a:ext cx="838200" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>三连击</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矩形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9096375" y="3848100"/>
+          <a:ext cx="838200" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>粉碎之光</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矩形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10668000" y="3124200"/>
+          <a:ext cx="838200" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>攻防转换</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矩形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9620250" y="3114675"/>
+          <a:ext cx="838200" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>钢之誓言</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="矩形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8620125" y="3114675"/>
+          <a:ext cx="838200" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>磁石轰炸</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>295276</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="肘形连接符 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9748838" y="1243013"/>
+          <a:ext cx="247650" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>285749</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="肘形连接符 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="10496550" y="1095374"/>
+          <a:ext cx="238125" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="肘形连接符 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9110663" y="1966913"/>
+          <a:ext cx="381000" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="肘形连接符 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="9620250" y="2000250"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直接箭头连接符 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11058525" y="2038350"/>
+          <a:ext cx="9525" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直接箭头连接符 30"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11068050" y="2828925"/>
+          <a:ext cx="19050" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直接箭头连接符 32"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10039350" y="2809875"/>
+          <a:ext cx="9525" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>380999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="肘形连接符 35"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="9101138" y="3433762"/>
+          <a:ext cx="352425" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="肘形连接符 37"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9601201" y="3409950"/>
+          <a:ext cx="352425" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直接箭头连接符 39"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9029700" y="2809875"/>
+          <a:ext cx="9525" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11029950" y="1419225"/>
+          <a:ext cx="885825" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>麻痹之咬</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>590550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11715750" y="1981200"/>
+          <a:ext cx="885825" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>净化之雾</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>600075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10220325" y="1990725"/>
+          <a:ext cx="885825" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>毒刺攻击</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10229850" y="2819400"/>
+          <a:ext cx="885825" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>毒菱</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12392025" y="2828925"/>
+          <a:ext cx="885825" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>毒爆弹</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11191875" y="2819400"/>
+          <a:ext cx="885825" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>毒雾</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12401550" y="3429000"/>
+          <a:ext cx="885825" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>迷惑毒雾</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>600075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>914400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矩形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10239375" y="4048125"/>
+          <a:ext cx="885825" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>毒之誓言</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矩形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11201400" y="3419475"/>
+          <a:ext cx="885825" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>石化之光</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矩形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10239375" y="3448050"/>
+          <a:ext cx="885825" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>淬毒之术</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>214314</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>347664</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>600075</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="肘形连接符 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10939464" y="1457325"/>
+          <a:ext cx="257175" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>347663</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>590550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="肘形连接符 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="11691938" y="1514475"/>
+          <a:ext cx="247650" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>223838</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直接箭头连接符 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10663238" y="2305050"/>
+          <a:ext cx="9525" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>509589</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>357189</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="肘形连接符 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="11634789" y="2295525"/>
+          <a:ext cx="523875" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="肘形连接符 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="12230100" y="2224087"/>
+          <a:ext cx="533400" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>223838</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>233363</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直接箭头连接符 29"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10672763" y="3133725"/>
+          <a:ext cx="9525" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>233363</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>233363</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>600075</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直接箭头连接符 31"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10682288" y="3762375"/>
+          <a:ext cx="0" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>509588</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>519113</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直接箭头连接符 41"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11634788" y="3133725"/>
+          <a:ext cx="9525" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>366713</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直接箭头连接符 44"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12834938" y="3143250"/>
+          <a:ext cx="9525" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11058525" y="1485900"/>
+          <a:ext cx="885825" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>暴风雪</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>552450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>866775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11677650" y="2095500"/>
+          <a:ext cx="885825" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>冰封世界</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>542925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>857250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10086975" y="2085975"/>
+          <a:ext cx="885825" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>冰砾</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1133475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1447800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10668000" y="2676525"/>
+          <a:ext cx="885825" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>冰雾</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1104900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1419225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11687175" y="2647950"/>
+          <a:ext cx="885825" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>极光</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1143000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1457325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9458325" y="2686050"/>
+          <a:ext cx="885825" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>冷冻光线</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9467850" y="3429000"/>
+          <a:ext cx="885825" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>临界冰点</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>514350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矩形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10067925" y="4143375"/>
+          <a:ext cx="885825" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>绝对零度</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矩形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10658475" y="3429000"/>
+          <a:ext cx="885825" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>冻结之风</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矩形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11687175" y="3409950"/>
+          <a:ext cx="885825" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>冰之誓言</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>471488</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>90488</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>542925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="肘形连接符 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10872788" y="1457325"/>
+          <a:ext cx="285750" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>90488</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>257174</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>33338</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>552449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="肘形连接符 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="11663363" y="1638299"/>
+          <a:ext cx="295275" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>33338</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>866775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>42863</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1104900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直接箭头连接符 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12120563" y="2409825"/>
+          <a:ext cx="9525" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>519113</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>857250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>471488</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1143000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="肘形连接符 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10072688" y="2228850"/>
+          <a:ext cx="285750" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>471488</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>857249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>376238</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1133474</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="肘形连接符 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="10682288" y="2247899"/>
+          <a:ext cx="276225" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>519113</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1457325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>528638</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直接箭头连接符 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9901238" y="3000375"/>
+          <a:ext cx="9525" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>366713</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1447800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>376238</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直接箭头连接符 26"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11101388" y="2990850"/>
+          <a:ext cx="9525" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>42863</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1419225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>42863</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直接箭头连接符 29"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12130088" y="2962275"/>
+          <a:ext cx="0" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="肘形连接符 32"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="10010775" y="3643312"/>
+          <a:ext cx="400050" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>452438</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>366713</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="肘形连接符 34"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10606088" y="3648075"/>
+          <a:ext cx="400050" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9877425" y="1400175"/>
+          <a:ext cx="885825" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>烈焰灼烧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11029950" y="2085975"/>
+          <a:ext cx="885825" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>炎牙</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9334500" y="2085975"/>
+          <a:ext cx="885825" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>淬炼</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>409575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9896475" y="2667000"/>
+          <a:ext cx="885825" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>温暖</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8667750" y="2676525"/>
+          <a:ext cx="885825" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>灭绝烈焰</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>438150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11049000" y="2695575"/>
+          <a:ext cx="885825" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>焰拳</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8677275" y="3248025"/>
+          <a:ext cx="885825" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>炎之誓言</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矩形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9915525" y="3267075"/>
+          <a:ext cx="885825" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>炎火之身</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矩形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9934575" y="3819525"/>
+          <a:ext cx="885825" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>炎火之羽</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矩形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11058525" y="3286125"/>
+          <a:ext cx="885825" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>火焰之足</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>138114</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4764</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="肘形连接符 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9863139" y="1628775"/>
+          <a:ext cx="371475" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>481013</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="肘形连接符 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="10710863" y="1323974"/>
+          <a:ext cx="371475" cy="1152525"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>481013</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>500063</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直接箭头连接符 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11472863" y="2400300"/>
+          <a:ext cx="19050" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>147639</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>342899</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>138114</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="肘形连接符 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9305926" y="2205037"/>
+          <a:ext cx="276225" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>138112</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="肘形连接符 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="9925050" y="2252662"/>
+          <a:ext cx="266700" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>500063</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>438150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>509588</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直接箭头连接符 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11491913" y="3009900"/>
+          <a:ext cx="9525" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>409575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>42863</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直接箭头连接符 28"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10339388" y="2981325"/>
+          <a:ext cx="19050" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>147638</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>157163</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直接箭头连接符 31"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9110663" y="2990850"/>
+          <a:ext cx="9525" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>42863</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>61913</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直接箭头连接符 33"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10358438" y="3581400"/>
+          <a:ext cx="19050" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="arrow"/>
@@ -3943,7 +13655,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -4196,6 +13908,7 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4208,8 +13921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -4467,6 +14180,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4895,7 +14609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -5401,7 +15115,7 @@
   <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -5719,6 +15433,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5731,7 +15446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -6008,7 +15723,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -6294,6 +16009,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6307,7 +16023,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -6563,6 +16279,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6576,7 +16293,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -6825,6 +16542,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6838,7 +16556,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -7090,6 +16808,7 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7103,7 +16822,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -7383,6 +17102,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7660,6 +17380,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/策划文档/宠物技能.xlsx
+++ b/策划文档/宠物技能.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="23910" windowHeight="9255" tabRatio="845" activeTab="10"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="20730" windowHeight="9255" tabRatio="845" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="489">
   <si>
     <t>金刚之躯</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,11 +178,6 @@
   </si>
   <si>
     <t>宠物自身围绕着绿色泡沫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">用巨大的树木拍击对手，下回合不能行动
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1217,10 +1212,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>减少消耗能量数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">最近一次受到的攻击伤害大力返还给对手，并消耗自身所有能量
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1286,18 +1277,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消耗魔法数，与陷阱持续回合数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏场景内的木元素化作木龙攻击对手。技能伤害=回合内搜集攻击分数*基础攻击*游戏场景内金元素数量。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减少消耗能量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能等级加成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1306,14 +1285,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消耗魔法值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏场景内每个水元素将化作一个水泡，己方弹球触碰将增加速度，敌方弹球触碰将减少速度，持续2回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>自身弹球附近出现音障，敌方玩家弹球触碰减少其速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1359,10 +1330,6 @@
   </si>
   <si>
     <t>使所有灼烧伤害加成（）%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏场景中央出现一个巨大火柱，敌方弹球触碰后将把敌方吸入火柱内（丧失行动能力）并对并窃取敌方所有能量并造成灼烧伤害（灼烧伤害根据灼烧技能等级而定），并吸收在技能释放回合火柱生成区域（半径：100）内元素攻击分数（无论属性相克，均视为同种属性）。即先结算区域内元素分数*基础攻击力，造成回合攻击（百分比）。火柱持续回合（）。敌方可视技能释放，可见战斗区域水柱弹位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1396,15 +1363,6 @@
   </si>
   <si>
     <t>宠物的攻击有一定几率获得2倍伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">游戏场景内的金元素化作光束攻击对手。技能伤害=回合内搜集攻击分数*基础攻击*游戏场景内金元素数量。
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏场景内的土元素化作地震波攻击对手。技能伤害=回合内搜集攻击分数*基础攻击*游戏场景内金元素数量。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1647,23 +1605,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>游戏场景内所有木系元素转变成陷阱，敌方玩家触碰将被藤蔓缠绕，丧失行动力1回合，技能效果持续（）回合。同时己方弹球触碰木系陷阱，陷阱将不会消失。但第一次碰撞后失去碰撞体积，即玩家触碰转变木系陷阱元素后获得攻击分数，但木系陷阱不消失，玩家弹球经过反弹再次触碰此木系元素。此元素将不会加成玩家攻击分数，也不改变玩家弹球路径。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>几率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>漩涡范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减少耗魔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耗魔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1999,49 +1945,129 @@
     <t>地洞数量随等级增加（上限3）</t>
   </si>
   <si>
-    <t xml:space="preserve">场景内所有土元素转变为沙尘陷阱，持续3回合，敌方玩家的弹珠进入其周围50内将被吸入（即速度为0回合结束）
+    <t>关于弹珠：弹珠分为两种：1.宠物化身为的弹珠。2.属性弹珠。</t>
+  </si>
+  <si>
+    <t>破防，击碎（作用于弹珠），灼烧</t>
+  </si>
+  <si>
+    <t>以自生重力优势冲击对手，有一定几率击晕对手。</t>
+  </si>
+  <si>
+    <t>战斗区域内敌方玩家弹球摩擦系数翻倍，影响敌方行动回合3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在弹珠区域随机出现地洞，弹珠通过地洞时将掉入地洞消失，持续两回合。不作用于己方增益弹珠。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周围生成特殊气体可吸收一定伤害（吸收伤害最大值=本回合内吸收元素数*100），消除异常状态，持续4回合）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒之迷雾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩散迷雾缩小敌方玩家视野，并每回合对敌方造成生命上限百分之5%的持续伤害，并减少敌方弹珠最高移动速度50%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体出现毒菱尖刺，敌方触碰到己方弹珠，造成毒素伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">游戏场景内的金元素化作光束攻击对手。技能伤害=回合内搜集攻击分数*基础攻击*游戏场景内金元素数量*技能百分数
 </t>
-  </si>
-  <si>
-    <t>关于弹珠：弹珠分为两种：1.宠物化身为的弹珠。2.属性弹珠。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">在对手脚下释放大地的力量，使敌方宠物弹珠移动速度减半。持续4回合。
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加技能百分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">用巨大的树木拍击对手，下回合不能行动，有一定几率击晕对手
 </t>
-  </si>
-  <si>
-    <t>破防，击碎（作用于弹珠），灼烧</t>
-  </si>
-  <si>
-    <t>以自生重力优势冲击对手，有一定几率击晕对手。</t>
-  </si>
-  <si>
-    <t>游戏场景内的水元素将化作海啸拍击对手，每个元素有几率造成晕眩使敌方丧失行动能力一回合。并每个水元素造成基础攻击力*（）%的伤害（作用于敌方宠物）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗区域内敌方玩家弹球摩擦系数翻倍，影响敌方行动回合3回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在弹珠区域随机出现地洞，弹珠通过地洞时将掉入地洞消失，持续两回合。不作用于己方增益弹珠。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周围生成特殊气体可吸收一定伤害（吸收伤害最大值=本回合内吸收元素数*100），消除异常状态，持续4回合）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒之迷雾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>扩散迷雾缩小敌方玩家视野，并每回合对敌方造成生命上限百分之5%的持续伤害，并减少敌方弹珠最高移动速度50%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>身体出现毒菱尖刺，敌方触碰到己方弹珠，造成毒素伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏场景内部分木系元素转变成陷阱，敌方玩家触碰将被藤蔓缠绕，丧失行动力1回合，技能效果持续（）回合。同时己方弹球触碰木系陷阱，陷阱将不会消失。但第一次碰撞后失去碰撞体积，即玩家触碰转变木系陷阱元素后获得攻击分数，但木系陷阱不消失，玩家弹球经过反弹再次触碰此木系元素。此元素将不会加成玩家攻击分数，也不改变玩家弹球路径。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加元素转化上限与陷阱持续回合数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏场景内的木元素化作木龙攻击对手。技能伤害=回合内搜集攻击分数*基础攻击*游戏场景内金元素数量*技能百分比。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加技能百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏场景内部分水元素将化作一个水泡，己方弹球触碰将增加速度，敌方弹球触碰将减少速度，持续2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加元素转化上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏场景内的部分水元素将化作海啸拍击对手，每个元素有几率造成晕眩使敌方丧失行动能力一回合。并每个水元素造成基础攻击力*（）%的伤害（作用于敌方宠物）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能百分比和元素转换上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水柱持续回合与技能百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏场景中央出现一个巨大火柱，敌方弹球触碰后将把敌方吸入火柱内（丧失行动能力）并对并窃取敌方所有能量并造成灼烧伤害（灼烧伤害根据灼烧技能等级而定），并吸收在技能释放回合火柱生成区域（半径：100）内元素攻击分数（无论属性相克，均视为同种属性）。即先结算区域内元素分数*基础攻击力，造成回合攻击（百分比）。火柱持续回合（）。敌方可视技能释放，可见战斗区域火柱弹位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火柱持续回合 技能百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高攻击分数加成百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">场景内部分土元素转变为沙尘陷阱，持续1回合，敌方玩家的弹珠进入其周围50内将被吸入（即速度为0回合结束）
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景内元素转化上限，作用范围。吸入范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">在对手脚下释放大地的力量，使敌方宠物弹珠移动速度减少百分比。持续4回合。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能伤害百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏场景内的土元素化作地震波攻击对手。技能伤害=回合内搜集攻击分数*基础攻击*游戏场景内土元素数量*技能百分比。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2439,8 +2465,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Insatisfaisant" xfId="1" builtinId="27"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -13251,7 +13277,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -13541,7 +13567,7 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="22.375" customWidth="1"/>
     <col min="3" max="3" width="10.625" customWidth="1"/>
@@ -13553,22 +13579,22 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -13576,13 +13602,13 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="68" customFormat="1">
@@ -13590,52 +13616,52 @@
     </row>
     <row r="9" spans="1:2" ht="40.5">
       <c r="A9" s="4" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="B10" s="5"/>
     </row>
     <row r="11" spans="1:2" ht="27">
       <c r="A11" s="4" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B11" s="5"/>
     </row>
     <row r="12" spans="1:2" ht="40.5">
       <c r="A12" s="4" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="B12" s="5"/>
     </row>
     <row r="13" spans="1:2" ht="54">
       <c r="A13" s="4" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:2" ht="27">
       <c r="A14" s="4" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="81">
       <c r="A15" s="4" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="27">
       <c r="A17" s="4" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -13658,7 +13684,7 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="29.625" customWidth="1"/>
@@ -13669,222 +13695,222 @@
   <sheetData>
     <row r="1" spans="1:6" ht="27">
       <c r="A1" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>139</v>
-      </c>
       <c r="E1" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F1" s="48" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="27">
       <c r="A2" s="13" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="27">
       <c r="A3" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>274</v>
-      </c>
       <c r="D3" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="C4" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>277</v>
-      </c>
       <c r="D4" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="27">
       <c r="A5" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="27">
       <c r="A6" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>280</v>
-      </c>
       <c r="D7" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="40.5">
       <c r="A8" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>282</v>
-      </c>
       <c r="D8" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="40.5">
       <c r="A9" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>417</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>267</v>
-      </c>
       <c r="D9" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="27">
       <c r="A10" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>271</v>
-      </c>
       <c r="D10" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="40.5">
       <c r="A11" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="56" customFormat="1"/>
@@ -13921,11 +13947,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="33.375" customWidth="1"/>
@@ -13937,222 +13963,222 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>139</v>
-      </c>
       <c r="E1" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>162</v>
-      </c>
       <c r="C2" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>190</v>
-      </c>
       <c r="F2" s="13" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25">
       <c r="A3" s="49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="81">
       <c r="A4" s="49" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D4" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>190</v>
-      </c>
       <c r="F4" s="13" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="81">
       <c r="A5" s="50" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.5">
       <c r="A6" s="50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D6" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>192</v>
-      </c>
       <c r="F6" s="16" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="27">
       <c r="A7" s="50" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D7" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>192</v>
-      </c>
       <c r="F7" s="16" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="40.5">
       <c r="A8" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="40.5">
       <c r="A9" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>458</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>194</v>
-      </c>
       <c r="F9" s="18" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25">
       <c r="A10" s="52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25">
       <c r="A11" s="52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -14197,7 +14223,7 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:4" ht="27">
       <c r="A1" s="1" t="s">
@@ -14213,7 +14239,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="27">
@@ -14230,7 +14256,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -14247,7 +14273,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="27">
@@ -14264,7 +14290,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -14281,7 +14307,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="27">
@@ -14298,10 +14324,10 @@
     </row>
     <row r="17" spans="1:8" ht="27">
       <c r="A17" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="27">
@@ -14318,7 +14344,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="27">
@@ -14335,7 +14361,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="27">
@@ -14352,7 +14378,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -14373,12 +14399,12 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -14400,7 +14426,7 @@
       <selection activeCell="D46" sqref="A39:D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:4" ht="27">
       <c r="A1" s="1" t="s">
@@ -14416,7 +14442,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="27">
@@ -14433,7 +14459,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -14450,7 +14476,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="27">
@@ -14467,7 +14493,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -14484,7 +14510,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="27">
@@ -14501,7 +14527,7 @@
     </row>
     <row r="17" spans="1:4" ht="54">
       <c r="A17" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="27">
@@ -14518,7 +14544,7 @@
     </row>
     <row r="20" spans="1:4" ht="81">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="27">
@@ -14535,7 +14561,7 @@
     </row>
     <row r="22" spans="1:4" ht="94.5">
       <c r="A22" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="27">
@@ -14552,7 +14578,7 @@
     </row>
     <row r="25" spans="1:4" ht="81">
       <c r="A25" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="27">
@@ -14569,7 +14595,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="27">
@@ -14586,12 +14612,12 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -14613,7 +14639,7 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:4" ht="27">
       <c r="A1" s="1" t="s">
@@ -14629,7 +14655,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="27">
@@ -14646,7 +14672,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -14663,7 +14689,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="27">
@@ -14680,7 +14706,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -14697,7 +14723,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="27">
@@ -14714,7 +14740,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="27">
@@ -14731,7 +14757,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="27">
@@ -14772,7 +14798,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -14794,7 +14820,7 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:4" ht="27">
       <c r="A1" s="1" t="s">
@@ -14810,7 +14836,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="27">
@@ -14827,7 +14853,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -14844,7 +14870,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="27">
@@ -14909,7 +14935,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -14931,7 +14957,7 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:4" ht="27">
       <c r="A1" s="1" t="s">
@@ -14947,7 +14973,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="27">
@@ -14964,7 +14990,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -14981,7 +15007,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="27">
@@ -14998,7 +15024,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -15015,7 +15041,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -15037,46 +15063,46 @@
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" t="s">
         <v>121</v>
-      </c>
-      <c r="B10" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" t="s">
         <v>123</v>
-      </c>
-      <c r="B11" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" t="s">
         <v>125</v>
-      </c>
-      <c r="B12" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" t="s">
         <v>127</v>
-      </c>
-      <c r="B13" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -15098,7 +15124,7 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15115,10 +15141,10 @@
   <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.875" customWidth="1"/>
@@ -15131,22 +15157,22 @@
   <sheetData>
     <row r="1" spans="1:12" s="7" customFormat="1">
       <c r="A1" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>138</v>
-      </c>
       <c r="D1" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -15159,19 +15185,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -15184,19 +15210,19 @@
         <v>33</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -15209,19 +15235,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -15234,19 +15260,19 @@
         <v>29</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -15259,19 +15285,19 @@
         <v>31</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -15284,19 +15310,19 @@
         <v>0</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -15306,22 +15332,22 @@
     </row>
     <row r="8" spans="1:12" ht="65.25" customHeight="1">
       <c r="A8" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>461</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>173</v>
-      </c>
       <c r="D8" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -15334,19 +15360,19 @@
         <v>27</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -15359,19 +15385,19 @@
         <v>32</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>338</v>
+        <v>467</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>293</v>
+        <v>468</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -15384,19 +15410,19 @@
         <v>28</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -15446,11 +15472,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -15462,22 +15488,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>138</v>
-      </c>
       <c r="D1" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="40.5">
@@ -15485,59 +15511,59 @@
         <v>20</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>41</v>
-      </c>
       <c r="D3" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="40.5">
@@ -15545,19 +15571,19 @@
         <v>21</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>36</v>
+        <v>469</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="67.5">
@@ -15565,39 +15591,39 @@
         <v>25</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>307</v>
+        <v>477</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="15" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="162">
@@ -15605,19 +15631,19 @@
         <v>23</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>386</v>
+        <v>470</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>310</v>
+        <v>471</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="54">
@@ -15625,19 +15651,19 @@
         <v>22</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>311</v>
+        <v>472</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>312</v>
+        <v>473</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="27">
@@ -15645,39 +15671,39 @@
         <v>24</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>304</v>
-      </c>
       <c r="E10" s="20" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="27">
       <c r="A11" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>44</v>
-      </c>
       <c r="D11" s="19" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -15699,7 +15725,7 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -15722,11 +15748,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.375" customWidth="1"/>
     <col min="2" max="2" width="43.875" customWidth="1"/>
@@ -15739,25 +15765,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="C1" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>139</v>
-      </c>
       <c r="E1" s="23" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -15765,45 +15791,45 @@
         <v>9</v>
       </c>
       <c r="B2" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>46</v>
-      </c>
       <c r="D2" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>364</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>187</v>
-      </c>
       <c r="D3" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="40.5">
@@ -15811,45 +15837,45 @@
         <v>10</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>316</v>
+        <v>474</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>315</v>
+        <v>475</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="27">
       <c r="A5" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="70" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -15857,45 +15883,45 @@
         <v>12</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="27">
       <c r="A7" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="54">
@@ -15906,19 +15932,19 @@
         <v>476</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>389</v>
+        <v>478</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="94.5">
@@ -15926,68 +15952,68 @@
         <v>13</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>390</v>
+        <v>479</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="27">
       <c r="A10" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="C10" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>48</v>
-      </c>
       <c r="D10" s="35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -16022,11 +16048,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.125" customWidth="1"/>
     <col min="2" max="2" width="43.5" customWidth="1"/>
@@ -16037,62 +16063,62 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>139</v>
-      </c>
       <c r="E1" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="40.5">
       <c r="A2" s="38" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>324</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>56</v>
-      </c>
       <c r="D3" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="27">
@@ -16100,19 +16126,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="40.5">
@@ -16120,59 +16146,59 @@
         <v>8</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="41" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="40.5">
@@ -16180,19 +16206,19 @@
         <v>3</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="121.5">
@@ -16200,58 +16226,60 @@
         <v>5</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>329</v>
+        <v>480</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>389</v>
+        <v>481</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="C11" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>402</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>61</v>
-      </c>
       <c r="D11" s="46" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E11" s="45" t="s">
-        <v>177</v>
-      </c>
-      <c r="F11" s="44"/>
+        <v>176</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5"/>
@@ -16261,7 +16289,7 @@
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="E15" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -16292,11 +16320,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
@@ -16308,22 +16336,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>139</v>
-      </c>
       <c r="E1" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -16331,19 +16359,19 @@
         <v>14</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -16351,19 +16379,19 @@
         <v>15</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="40.5">
@@ -16371,39 +16399,39 @@
         <v>18</v>
       </c>
       <c r="B4" s="71" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="27">
       <c r="A5" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="54">
@@ -16411,39 +16439,39 @@
         <v>19</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>389</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="40.5">
@@ -16451,19 +16479,19 @@
         <v>17</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>389</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="40.5">
@@ -16471,59 +16499,59 @@
         <v>16</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>339</v>
+        <v>488</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>403</v>
+        <v>487</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="27">
       <c r="A11" s="44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E11" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -16555,11 +16583,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" customWidth="1"/>
@@ -16570,222 +16598,222 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="C1" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="48" t="s">
-        <v>139</v>
-      </c>
       <c r="E1" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="54">
       <c r="A2" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="40.5">
       <c r="A3" s="49" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="27">
       <c r="A4" s="49" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25">
       <c r="A5" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>223</v>
-      </c>
       <c r="C5" s="42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.5">
       <c r="A6" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="B6" s="51" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>225</v>
-      </c>
       <c r="D6" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="27">
       <c r="A7" s="50" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="40.5">
       <c r="A8" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="42.75">
       <c r="A9" s="52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B9" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>228</v>
-      </c>
       <c r="D9" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="27">
       <c r="A10" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>234</v>
-      </c>
       <c r="C10" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="40.5">
       <c r="A11" s="52" t="s">
+        <v>241</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>430</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>243</v>
-      </c>
       <c r="D11" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -16825,7 +16853,7 @@
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.625" customWidth="1"/>
@@ -16836,235 +16864,235 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27">
       <c r="A1" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>139</v>
-      </c>
       <c r="E1" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F1" s="48" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="54">
       <c r="A2" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>246</v>
-      </c>
       <c r="D2" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="28.5">
       <c r="A3" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="54">
       <c r="A4" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B4" s="71" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>250</v>
-      </c>
       <c r="C5" s="42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="40.5">
       <c r="A6" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>148</v>
-      </c>
       <c r="C6" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="27">
       <c r="A7" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B7" s="74" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="27">
       <c r="A8" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="C8" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>260</v>
-      </c>
       <c r="D8" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="189">
       <c r="A9" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="C9" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>255</v>
-      </c>
       <c r="D9" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="G9" s="72" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="H9" s="73" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="54">
       <c r="A10" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="27">
       <c r="A11" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>262</v>
-      </c>
       <c r="D11" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -17119,7 +17147,7 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.375" customWidth="1"/>
     <col min="2" max="2" width="18.625" customWidth="1"/>
@@ -17131,220 +17159,220 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="D1" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="47" t="s">
-        <v>139</v>
-      </c>
       <c r="E1" s="47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F1" s="64" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="54">
       <c r="A2" s="65" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D2" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="65" t="s">
         <v>189</v>
       </c>
-      <c r="E2" s="65" t="s">
-        <v>190</v>
-      </c>
       <c r="F2" s="65" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="27">
       <c r="A3" s="65" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D3" s="66" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F3" s="65" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="27">
       <c r="A4" s="65" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="C4" s="65" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F4" s="65" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="121.5">
       <c r="A5" s="58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E5" s="58" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F5" s="58" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="40.5">
       <c r="A6" s="58" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E6" s="58" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F6" s="58" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="27">
       <c r="A7" s="58" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D7" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="E7" s="58" t="s">
-        <v>192</v>
-      </c>
       <c r="F7" s="58" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="81">
       <c r="A8" s="60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C8" s="61" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D8" s="61" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E8" s="61" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F8" s="61" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="27">
       <c r="A9" s="61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D9" s="62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E9" s="61" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F9" s="61" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="202.5">
       <c r="A10" s="61" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D10" s="61" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E10" s="61" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F10" s="61" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="54">
       <c r="A11" s="61" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="C11" s="63"/>
       <c r="D11" s="62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E11" s="61" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F11" s="61" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:6">
